--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_3_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_3_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3969309.911657489</v>
+        <v>3968074.548654084</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53890.85515285248</v>
+        <v>53890.85515285285</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>218.0792724223796</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>72.47049842454874</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>88.2353509226315</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>32.94517566205834</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -941,10 +941,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>192.9610988726774</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>68.21015448122992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1026,10 +1026,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>49.65289762498703</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>156.0184325857292</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1178,13 +1178,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>36.21593518981624</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>241.0142888776591</v>
@@ -1215,10 +1215,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>36.43923176655773</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>117.7259878520199</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>291.7186635429859</v>
+        <v>291.718663542986</v>
       </c>
       <c r="C11" t="n">
         <v>274.2577136505129</v>
@@ -1376,19 +1376,19 @@
         <v>263.6678635001883</v>
       </c>
       <c r="E11" t="n">
-        <v>290.9151919517671</v>
+        <v>290.9151919517672</v>
       </c>
       <c r="F11" t="n">
         <v>315.8608676212168</v>
       </c>
       <c r="G11" t="n">
-        <v>322.0772286298366</v>
+        <v>276.9425090713336</v>
       </c>
       <c r="H11" t="n">
         <v>225.8230740502262</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.24693463981492</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>56.74919424409658</v>
+        <v>67.63697916278539</v>
       </c>
       <c r="T11" t="n">
         <v>122.4049485207083</v>
       </c>
       <c r="U11" t="n">
-        <v>160.1536483261575</v>
+        <v>160.1536483261576</v>
       </c>
       <c r="V11" t="n">
-        <v>236.7370803496402</v>
+        <v>236.7370803496403</v>
       </c>
       <c r="W11" t="n">
-        <v>258.2257905969183</v>
+        <v>258.2257905969184</v>
       </c>
       <c r="X11" t="n">
         <v>278.7159225579744</v>
       </c>
       <c r="Y11" t="n">
-        <v>295.2227605355589</v>
+        <v>295.222760535559</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>100.8137164007008</v>
       </c>
       <c r="I12" t="n">
-        <v>48.67884742407819</v>
+        <v>48.67884742407817</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>26.73095892851815</v>
+        <v>26.73095892851812</v>
       </c>
       <c r="S12" t="n">
         <v>149.7163148892172</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.81680206144262</v>
+        <v>88.81680206144267</v>
       </c>
       <c r="C13" t="n">
-        <v>76.23164297813315</v>
+        <v>76.23164297813321</v>
       </c>
       <c r="D13" t="n">
-        <v>57.60029489771767</v>
+        <v>57.60029489771773</v>
       </c>
       <c r="E13" t="n">
-        <v>55.41878452607449</v>
+        <v>55.41878452607455</v>
       </c>
       <c r="F13" t="n">
-        <v>54.40586990243656</v>
+        <v>54.40586990243662</v>
       </c>
       <c r="G13" t="n">
-        <v>75.98432295022732</v>
+        <v>75.98432295022738</v>
       </c>
       <c r="H13" t="n">
-        <v>62.39685106506714</v>
+        <v>62.39685106506718</v>
       </c>
       <c r="I13" t="n">
-        <v>34.61884066282536</v>
+        <v>34.61884066282541</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.69774406443828</v>
+        <v>41.69774406443833</v>
       </c>
       <c r="S13" t="n">
         <v>115.7226573929197</v>
       </c>
       <c r="T13" t="n">
-        <v>132.694094987457</v>
+        <v>132.6940949874571</v>
       </c>
       <c r="U13" t="n">
         <v>195.2497706021197</v>
       </c>
       <c r="V13" t="n">
-        <v>161.1224652033333</v>
+        <v>161.1224652033334</v>
       </c>
       <c r="W13" t="n">
-        <v>195.5078202160963</v>
+        <v>195.5078202160964</v>
       </c>
       <c r="X13" t="n">
         <v>134.6944772685425</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.5694752316001</v>
+        <v>127.5694752316002</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>291.7186635429859</v>
+        <v>291.718663542986</v>
       </c>
       <c r="C14" t="n">
         <v>274.2577136505129</v>
@@ -1613,19 +1613,19 @@
         <v>263.6678635001883</v>
       </c>
       <c r="E14" t="n">
-        <v>290.9151919517671</v>
+        <v>290.9151919517672</v>
       </c>
       <c r="F14" t="n">
         <v>315.8608676212168</v>
       </c>
       <c r="G14" t="n">
-        <v>322.0772286298366</v>
+        <v>276.9425090713336</v>
       </c>
       <c r="H14" t="n">
         <v>225.8230740502262</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.24693463981492</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.63697916278535</v>
+        <v>67.63697916278539</v>
       </c>
       <c r="T14" t="n">
         <v>122.4049485207083</v>
       </c>
       <c r="U14" t="n">
-        <v>149.2658634074694</v>
+        <v>160.1536483261576</v>
       </c>
       <c r="V14" t="n">
-        <v>236.7370803496402</v>
+        <v>236.7370803496403</v>
       </c>
       <c r="W14" t="n">
-        <v>258.2257905969183</v>
+        <v>258.2257905969184</v>
       </c>
       <c r="X14" t="n">
         <v>278.7159225579744</v>
       </c>
       <c r="Y14" t="n">
-        <v>295.2227605355589</v>
+        <v>295.222760535559</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>100.8137164007008</v>
       </c>
       <c r="I15" t="n">
-        <v>48.67884742407819</v>
+        <v>48.67884742407817</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>26.73095892851815</v>
+        <v>26.73095892851812</v>
       </c>
       <c r="S15" t="n">
         <v>149.7163148892172</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.81680206144262</v>
+        <v>88.81680206144267</v>
       </c>
       <c r="C16" t="n">
-        <v>76.23164297813315</v>
+        <v>76.23164297813321</v>
       </c>
       <c r="D16" t="n">
-        <v>57.60029489771767</v>
+        <v>57.60029489771773</v>
       </c>
       <c r="E16" t="n">
-        <v>55.41878452607449</v>
+        <v>55.41878452607455</v>
       </c>
       <c r="F16" t="n">
-        <v>54.40586990243656</v>
+        <v>54.40586990243662</v>
       </c>
       <c r="G16" t="n">
-        <v>75.98432295022732</v>
+        <v>75.98432295022738</v>
       </c>
       <c r="H16" t="n">
-        <v>62.39685106506714</v>
+        <v>62.3968510650672</v>
       </c>
       <c r="I16" t="n">
-        <v>34.61884066282536</v>
+        <v>34.61884066282541</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.69774406443828</v>
+        <v>41.69774406443831</v>
       </c>
       <c r="S16" t="n">
         <v>115.7226573929197</v>
       </c>
       <c r="T16" t="n">
-        <v>132.694094987457</v>
+        <v>132.6940949874571</v>
       </c>
       <c r="U16" t="n">
         <v>195.2497706021197</v>
       </c>
       <c r="V16" t="n">
-        <v>161.1224652033333</v>
+        <v>161.1224652033334</v>
       </c>
       <c r="W16" t="n">
-        <v>195.5078202160963</v>
+        <v>195.5078202160964</v>
       </c>
       <c r="X16" t="n">
         <v>134.6944772685425</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.5694752316001</v>
+        <v>127.5694752316002</v>
       </c>
     </row>
     <row r="17">
@@ -1853,16 +1853,16 @@
         <v>287.9062106478669</v>
       </c>
       <c r="F17" t="n">
-        <v>312.8518863173165</v>
+        <v>312.8518863173166</v>
       </c>
       <c r="G17" t="n">
-        <v>319.0682473259364</v>
+        <v>319.0682473259365</v>
       </c>
       <c r="H17" t="n">
         <v>222.8140927463259</v>
       </c>
       <c r="I17" t="n">
-        <v>31.23795333591472</v>
+        <v>31.2379533359147</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>255.2168092930181</v>
       </c>
       <c r="X17" t="n">
-        <v>275.7069412540741</v>
+        <v>275.7069412540742</v>
       </c>
       <c r="Y17" t="n">
         <v>292.2137792316587</v>
@@ -1941,7 +1941,7 @@
         <v>100.8137164007008</v>
       </c>
       <c r="I18" t="n">
-        <v>48.6788474240782</v>
+        <v>48.67884742407819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>26.73095892851816</v>
+        <v>26.73095892851813</v>
       </c>
       <c r="S18" t="n">
         <v>149.7163148892172</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.80782075754242</v>
+        <v>85.80782075754243</v>
       </c>
       <c r="C19" t="n">
-        <v>73.22266167423295</v>
+        <v>73.22266167423297</v>
       </c>
       <c r="D19" t="n">
-        <v>54.59131359381747</v>
+        <v>54.59131359381749</v>
       </c>
       <c r="E19" t="n">
-        <v>52.40980322217429</v>
+        <v>52.4098032221743</v>
       </c>
       <c r="F19" t="n">
-        <v>51.39688859853636</v>
+        <v>51.39688859853638</v>
       </c>
       <c r="G19" t="n">
-        <v>72.97534164632712</v>
+        <v>72.97534164632714</v>
       </c>
       <c r="H19" t="n">
-        <v>59.38786976116694</v>
+        <v>59.38786976116695</v>
       </c>
       <c r="I19" t="n">
         <v>31.60985935892517</v>
@@ -2327,16 +2327,16 @@
         <v>287.9062106478669</v>
       </c>
       <c r="F23" t="n">
-        <v>312.8518863173165</v>
+        <v>312.8518863173166</v>
       </c>
       <c r="G23" t="n">
-        <v>319.0682473259364</v>
+        <v>319.0682473259365</v>
       </c>
       <c r="H23" t="n">
-        <v>222.8140927463259</v>
+        <v>222.814092746326</v>
       </c>
       <c r="I23" t="n">
-        <v>31.23795333591471</v>
+        <v>31.23795333591474</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>64.62799785888514</v>
+        <v>64.62799785888517</v>
       </c>
       <c r="T23" t="n">
         <v>119.3959672168081</v>
       </c>
       <c r="U23" t="n">
-        <v>157.1446670222573</v>
+        <v>157.1446670222574</v>
       </c>
       <c r="V23" t="n">
-        <v>233.72809904574</v>
+        <v>233.7280990457401</v>
       </c>
       <c r="W23" t="n">
-        <v>255.2168092930181</v>
+        <v>255.2168092930182</v>
       </c>
       <c r="X23" t="n">
-        <v>275.7069412540741</v>
+        <v>275.7069412540742</v>
       </c>
       <c r="Y23" t="n">
         <v>292.2137792316587</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.80782075754242</v>
+        <v>85.80782075754244</v>
       </c>
       <c r="C25" t="n">
-        <v>73.22266167423295</v>
+        <v>73.22266167423298</v>
       </c>
       <c r="D25" t="n">
-        <v>54.59131359381747</v>
+        <v>54.5913135938175</v>
       </c>
       <c r="E25" t="n">
-        <v>52.40980322217429</v>
+        <v>52.40980322217432</v>
       </c>
       <c r="F25" t="n">
-        <v>51.39688859853636</v>
+        <v>51.39688859853639</v>
       </c>
       <c r="G25" t="n">
-        <v>72.97534164632712</v>
+        <v>72.97534164632715</v>
       </c>
       <c r="H25" t="n">
-        <v>59.38786976116694</v>
+        <v>59.38786976116697</v>
       </c>
       <c r="I25" t="n">
-        <v>31.60985935892517</v>
+        <v>31.6098593589252</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>38.68876276053808</v>
+        <v>38.6887627605381</v>
       </c>
       <c r="S25" t="n">
         <v>112.7136760890195</v>
       </c>
       <c r="T25" t="n">
-        <v>129.6851136835568</v>
+        <v>129.6851136835569</v>
       </c>
       <c r="U25" t="n">
         <v>192.2407892982195</v>
       </c>
       <c r="V25" t="n">
-        <v>158.1134838994331</v>
+        <v>158.1134838994332</v>
       </c>
       <c r="W25" t="n">
-        <v>192.4988389121961</v>
+        <v>192.4988389121962</v>
       </c>
       <c r="X25" t="n">
         <v>131.6854959646423</v>
@@ -2561,7 +2561,7 @@
         <v>263.6678635001883</v>
       </c>
       <c r="E26" t="n">
-        <v>245.7804723932636</v>
+        <v>290.9151919517672</v>
       </c>
       <c r="F26" t="n">
         <v>315.8608676212168</v>
@@ -2573,7 +2573,7 @@
         <v>225.8230740502262</v>
       </c>
       <c r="I26" t="n">
-        <v>34.24693463981497</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.63697916278541</v>
+        <v>67.63697916278538</v>
       </c>
       <c r="T26" t="n">
         <v>122.4049485207083</v>
       </c>
       <c r="U26" t="n">
-        <v>160.1536483261576</v>
+        <v>149.265863407469</v>
       </c>
       <c r="V26" t="n">
         <v>236.7370803496403</v>
@@ -2621,7 +2621,7 @@
         <v>278.7159225579744</v>
       </c>
       <c r="Y26" t="n">
-        <v>295.222760535559</v>
+        <v>295.2227605355589</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>88.81680206144267</v>
+        <v>88.81680206144264</v>
       </c>
       <c r="C28" t="n">
-        <v>76.23164297813321</v>
+        <v>76.23164297813318</v>
       </c>
       <c r="D28" t="n">
-        <v>57.60029489771773</v>
+        <v>57.6002948977177</v>
       </c>
       <c r="E28" t="n">
-        <v>55.41878452607455</v>
+        <v>55.41878452607452</v>
       </c>
       <c r="F28" t="n">
-        <v>54.40586990243662</v>
+        <v>54.40586990243659</v>
       </c>
       <c r="G28" t="n">
-        <v>75.98432295022738</v>
+        <v>75.98432295022735</v>
       </c>
       <c r="H28" t="n">
-        <v>62.39685106506721</v>
+        <v>62.39685106506718</v>
       </c>
       <c r="I28" t="n">
-        <v>34.61884066282542</v>
+        <v>34.61884066282539</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.69774406443833</v>
+        <v>41.6977440644383</v>
       </c>
       <c r="S28" t="n">
         <v>115.7226573929197</v>
       </c>
       <c r="T28" t="n">
-        <v>132.6940949874571</v>
+        <v>132.694094987457</v>
       </c>
       <c r="U28" t="n">
         <v>195.2497706021197</v>
       </c>
       <c r="V28" t="n">
-        <v>161.1224652033334</v>
+        <v>161.1224652033333</v>
       </c>
       <c r="W28" t="n">
-        <v>195.5078202160964</v>
+        <v>195.5078202160963</v>
       </c>
       <c r="X28" t="n">
         <v>134.6944772685425</v>
       </c>
       <c r="Y28" t="n">
-        <v>127.5694752316002</v>
+        <v>127.5694752316001</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>291.718663542986</v>
+        <v>291.7186635429859</v>
       </c>
       <c r="C29" t="n">
         <v>274.2577136505129</v>
@@ -2798,19 +2798,19 @@
         <v>263.6678635001883</v>
       </c>
       <c r="E29" t="n">
-        <v>290.9151919517672</v>
+        <v>290.9151919517671</v>
       </c>
       <c r="F29" t="n">
         <v>315.8608676212168</v>
       </c>
       <c r="G29" t="n">
-        <v>322.0772286298367</v>
+        <v>322.0772286298366</v>
       </c>
       <c r="H29" t="n">
         <v>225.8230740502262</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.24693463981492</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>67.63697916278541</v>
+        <v>67.63697916278537</v>
       </c>
       <c r="T29" t="n">
-        <v>111.51716360202</v>
+        <v>122.4049485207083</v>
       </c>
       <c r="U29" t="n">
-        <v>160.1536483261576</v>
+        <v>115.0189287676553</v>
       </c>
       <c r="V29" t="n">
-        <v>236.7370803496403</v>
+        <v>236.7370803496402</v>
       </c>
       <c r="W29" t="n">
-        <v>258.2257905969184</v>
+        <v>258.2257905969183</v>
       </c>
       <c r="X29" t="n">
         <v>278.7159225579744</v>
       </c>
       <c r="Y29" t="n">
-        <v>295.222760535559</v>
+        <v>295.2227605355589</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>88.81680206144267</v>
+        <v>88.81680206144263</v>
       </c>
       <c r="C31" t="n">
-        <v>76.23164297813321</v>
+        <v>76.23164297813317</v>
       </c>
       <c r="D31" t="n">
-        <v>57.60029489771773</v>
+        <v>57.60029489771769</v>
       </c>
       <c r="E31" t="n">
-        <v>55.41878452607455</v>
+        <v>55.4187845260745</v>
       </c>
       <c r="F31" t="n">
-        <v>54.40586990243662</v>
+        <v>54.40586990243658</v>
       </c>
       <c r="G31" t="n">
-        <v>75.98432295022738</v>
+        <v>75.98432295022734</v>
       </c>
       <c r="H31" t="n">
-        <v>62.39685106506721</v>
+        <v>62.39685106506717</v>
       </c>
       <c r="I31" t="n">
-        <v>34.61884066282542</v>
+        <v>34.61884066282538</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.69774406443833</v>
+        <v>41.69774406443828</v>
       </c>
       <c r="S31" t="n">
         <v>115.7226573929197</v>
       </c>
       <c r="T31" t="n">
-        <v>132.6940949874571</v>
+        <v>132.694094987457</v>
       </c>
       <c r="U31" t="n">
         <v>195.2497706021197</v>
       </c>
       <c r="V31" t="n">
-        <v>161.1224652033334</v>
+        <v>161.1224652033333</v>
       </c>
       <c r="W31" t="n">
-        <v>195.5078202160964</v>
+        <v>195.5078202160963</v>
       </c>
       <c r="X31" t="n">
         <v>134.6944772685425</v>
       </c>
       <c r="Y31" t="n">
-        <v>127.5694752316002</v>
+        <v>127.5694752316001</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>288.7096822390856</v>
+        <v>288.7096822390857</v>
       </c>
       <c r="C32" t="n">
         <v>271.2487323466127</v>
       </c>
       <c r="D32" t="n">
-        <v>260.658882196288</v>
+        <v>260.6588821962881</v>
       </c>
       <c r="E32" t="n">
-        <v>287.9062106478668</v>
+        <v>287.9062106478669</v>
       </c>
       <c r="F32" t="n">
-        <v>312.8518863173165</v>
+        <v>312.8518863173166</v>
       </c>
       <c r="G32" t="n">
-        <v>319.0682473259363</v>
+        <v>319.0682473259365</v>
       </c>
       <c r="H32" t="n">
-        <v>222.8140927463259</v>
+        <v>222.814092746326</v>
       </c>
       <c r="I32" t="n">
-        <v>31.23795333591467</v>
+        <v>31.23795333591474</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>64.6279978588851</v>
+        <v>64.62799785888517</v>
       </c>
       <c r="T32" t="n">
         <v>119.3959672168081</v>
       </c>
       <c r="U32" t="n">
-        <v>157.1446670222573</v>
+        <v>157.1446670222574</v>
       </c>
       <c r="V32" t="n">
-        <v>233.72809904574</v>
+        <v>233.7280990457401</v>
       </c>
       <c r="W32" t="n">
-        <v>255.2168092930181</v>
+        <v>255.2168092930182</v>
       </c>
       <c r="X32" t="n">
-        <v>275.7069412540741</v>
+        <v>275.7069412540742</v>
       </c>
       <c r="Y32" t="n">
         <v>292.2137792316587</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>85.80782075754237</v>
+        <v>85.80782075754244</v>
       </c>
       <c r="C34" t="n">
-        <v>73.22266167423291</v>
+        <v>73.22266167423298</v>
       </c>
       <c r="D34" t="n">
-        <v>54.59131359381743</v>
+        <v>54.5913135938175</v>
       </c>
       <c r="E34" t="n">
-        <v>52.40980322217425</v>
+        <v>52.40980322217432</v>
       </c>
       <c r="F34" t="n">
-        <v>51.39688859853632</v>
+        <v>51.39688859853639</v>
       </c>
       <c r="G34" t="n">
-        <v>72.97534164632708</v>
+        <v>72.97534164632715</v>
       </c>
       <c r="H34" t="n">
-        <v>59.3878697611669</v>
+        <v>59.38786976116697</v>
       </c>
       <c r="I34" t="n">
-        <v>31.60985935892512</v>
+        <v>31.6098593589252</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>38.68876276053803</v>
+        <v>38.6887627605381</v>
       </c>
       <c r="S34" t="n">
-        <v>112.7136760890194</v>
+        <v>112.7136760890195</v>
       </c>
       <c r="T34" t="n">
-        <v>129.6851136835568</v>
+        <v>129.6851136835569</v>
       </c>
       <c r="U34" t="n">
-        <v>192.2407892982194</v>
+        <v>192.2407892982195</v>
       </c>
       <c r="V34" t="n">
-        <v>158.1134838994331</v>
+        <v>158.1134838994332</v>
       </c>
       <c r="W34" t="n">
-        <v>192.4988389121961</v>
+        <v>192.4988389121962</v>
       </c>
       <c r="X34" t="n">
-        <v>131.6854959646422</v>
+        <v>131.6854959646423</v>
       </c>
       <c r="Y34" t="n">
         <v>124.5604939276999</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>288.7096822390856</v>
+        <v>288.7096822390857</v>
       </c>
       <c r="C35" t="n">
         <v>271.2487323466127</v>
       </c>
       <c r="D35" t="n">
-        <v>260.658882196288</v>
+        <v>260.6588821962881</v>
       </c>
       <c r="E35" t="n">
-        <v>287.9062106478668</v>
+        <v>287.9062106478669</v>
       </c>
       <c r="F35" t="n">
-        <v>312.8518863173165</v>
+        <v>312.8518863173166</v>
       </c>
       <c r="G35" t="n">
-        <v>319.0682473259363</v>
+        <v>319.0682473259365</v>
       </c>
       <c r="H35" t="n">
-        <v>222.8140927463259</v>
+        <v>222.814092746326</v>
       </c>
       <c r="I35" t="n">
-        <v>31.23795333591467</v>
+        <v>31.23795333591474</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.62799785888511</v>
+        <v>64.62799785888517</v>
       </c>
       <c r="T35" t="n">
-        <v>119.3959672168084</v>
+        <v>119.3959672168081</v>
       </c>
       <c r="U35" t="n">
-        <v>157.1446670222573</v>
+        <v>157.1446670222574</v>
       </c>
       <c r="V35" t="n">
-        <v>233.72809904574</v>
+        <v>233.7280990457401</v>
       </c>
       <c r="W35" t="n">
-        <v>255.2168092930181</v>
+        <v>255.2168092930182</v>
       </c>
       <c r="X35" t="n">
-        <v>275.7069412540741</v>
+        <v>275.7069412540742</v>
       </c>
       <c r="Y35" t="n">
         <v>292.2137792316587</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>85.80782075754237</v>
+        <v>85.80782075754244</v>
       </c>
       <c r="C37" t="n">
-        <v>73.22266167423291</v>
+        <v>73.22266167423298</v>
       </c>
       <c r="D37" t="n">
-        <v>54.59131359381743</v>
+        <v>54.5913135938175</v>
       </c>
       <c r="E37" t="n">
-        <v>52.40980322217425</v>
+        <v>52.40980322217432</v>
       </c>
       <c r="F37" t="n">
-        <v>51.39688859853632</v>
+        <v>51.39688859853639</v>
       </c>
       <c r="G37" t="n">
-        <v>72.97534164632708</v>
+        <v>72.97534164632715</v>
       </c>
       <c r="H37" t="n">
-        <v>59.3878697611669</v>
+        <v>59.38786976116697</v>
       </c>
       <c r="I37" t="n">
-        <v>31.60985935892512</v>
+        <v>31.6098593589252</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>38.68876276053803</v>
+        <v>38.6887627605381</v>
       </c>
       <c r="S37" t="n">
-        <v>112.7136760890194</v>
+        <v>112.7136760890195</v>
       </c>
       <c r="T37" t="n">
-        <v>129.6851136835568</v>
+        <v>129.6851136835569</v>
       </c>
       <c r="U37" t="n">
-        <v>192.2407892982194</v>
+        <v>192.2407892982195</v>
       </c>
       <c r="V37" t="n">
-        <v>158.1134838994331</v>
+        <v>158.1134838994332</v>
       </c>
       <c r="W37" t="n">
-        <v>192.4988389121961</v>
+        <v>192.4988389121962</v>
       </c>
       <c r="X37" t="n">
-        <v>131.6854959646422</v>
+        <v>131.6854959646423</v>
       </c>
       <c r="Y37" t="n">
         <v>124.5604939276999</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>288.7096822390856</v>
+        <v>288.7096822390857</v>
       </c>
       <c r="C38" t="n">
         <v>271.2487323466127</v>
       </c>
       <c r="D38" t="n">
-        <v>260.658882196288</v>
+        <v>260.6588821962881</v>
       </c>
       <c r="E38" t="n">
-        <v>287.9062106478668</v>
+        <v>287.9062106478669</v>
       </c>
       <c r="F38" t="n">
-        <v>312.8518863173165</v>
+        <v>312.8518863173166</v>
       </c>
       <c r="G38" t="n">
-        <v>319.0682473259363</v>
+        <v>319.0682473259365</v>
       </c>
       <c r="H38" t="n">
-        <v>222.8140927463259</v>
+        <v>222.814092746326</v>
       </c>
       <c r="I38" t="n">
-        <v>31.23795333591467</v>
+        <v>31.23795333591475</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.62799785888511</v>
+        <v>64.62799785888518</v>
       </c>
       <c r="T38" t="n">
-        <v>119.395967216808</v>
+        <v>119.3959672168081</v>
       </c>
       <c r="U38" t="n">
-        <v>157.1446670222573</v>
+        <v>157.1446670222574</v>
       </c>
       <c r="V38" t="n">
-        <v>233.72809904574</v>
+        <v>233.7280990457401</v>
       </c>
       <c r="W38" t="n">
-        <v>255.2168092930181</v>
+        <v>255.2168092930182</v>
       </c>
       <c r="X38" t="n">
-        <v>275.7069412540741</v>
+        <v>275.7069412540742</v>
       </c>
       <c r="Y38" t="n">
         <v>292.2137792316587</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.80782075754237</v>
+        <v>85.80782075754246</v>
       </c>
       <c r="C40" t="n">
-        <v>73.22266167423291</v>
+        <v>73.222661674233</v>
       </c>
       <c r="D40" t="n">
-        <v>54.59131359381743</v>
+        <v>54.59131359381752</v>
       </c>
       <c r="E40" t="n">
-        <v>52.40980322217425</v>
+        <v>52.40980322217433</v>
       </c>
       <c r="F40" t="n">
-        <v>51.39688859853632</v>
+        <v>51.39688859853641</v>
       </c>
       <c r="G40" t="n">
-        <v>72.97534164632708</v>
+        <v>72.97534164632717</v>
       </c>
       <c r="H40" t="n">
-        <v>59.3878697611669</v>
+        <v>59.38786976116698</v>
       </c>
       <c r="I40" t="n">
-        <v>31.60985935892512</v>
+        <v>31.60985935892521</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>38.68876276053803</v>
+        <v>38.68876276053812</v>
       </c>
       <c r="S40" t="n">
-        <v>112.7136760890194</v>
+        <v>112.7136760890195</v>
       </c>
       <c r="T40" t="n">
-        <v>129.6851136835568</v>
+        <v>129.6851136835569</v>
       </c>
       <c r="U40" t="n">
-        <v>192.2407892982194</v>
+        <v>192.2407892982195</v>
       </c>
       <c r="V40" t="n">
-        <v>158.1134838994331</v>
+        <v>158.1134838994332</v>
       </c>
       <c r="W40" t="n">
-        <v>192.4988389121961</v>
+        <v>192.4988389121962</v>
       </c>
       <c r="X40" t="n">
-        <v>131.6854959646422</v>
+        <v>131.6854959646423</v>
       </c>
       <c r="Y40" t="n">
-        <v>124.5604939276999</v>
+        <v>124.5604939277</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>291.7186635429859</v>
+        <v>291.718663542986</v>
       </c>
       <c r="C41" t="n">
         <v>274.2577136505129</v>
@@ -3746,19 +3746,19 @@
         <v>263.6678635001883</v>
       </c>
       <c r="E41" t="n">
-        <v>290.9151919517671</v>
+        <v>290.9151919517672</v>
       </c>
       <c r="F41" t="n">
         <v>315.8608676212168</v>
       </c>
       <c r="G41" t="n">
-        <v>322.0772286298366</v>
+        <v>322.0772286298367</v>
       </c>
       <c r="H41" t="n">
         <v>225.8230740502262</v>
       </c>
       <c r="I41" t="n">
-        <v>34.24693463981492</v>
+        <v>34.24693463981494</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>22.50225960428294</v>
+        <v>22.50225960428159</v>
       </c>
       <c r="T41" t="n">
         <v>122.4049485207083</v>
@@ -3797,10 +3797,10 @@
         <v>160.1536483261575</v>
       </c>
       <c r="V41" t="n">
-        <v>236.7370803496402</v>
+        <v>236.7370803496403</v>
       </c>
       <c r="W41" t="n">
-        <v>258.2257905969183</v>
+        <v>258.2257905969184</v>
       </c>
       <c r="X41" t="n">
         <v>278.7159225579744</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>88.81680206144263</v>
+        <v>88.81680206144264</v>
       </c>
       <c r="C43" t="n">
-        <v>76.23164297813317</v>
+        <v>76.23164297813318</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60029489771769</v>
+        <v>57.6002948977177</v>
       </c>
       <c r="E43" t="n">
-        <v>55.4187845260745</v>
+        <v>55.41878452607452</v>
       </c>
       <c r="F43" t="n">
-        <v>54.40586990243658</v>
+        <v>54.40586990243659</v>
       </c>
       <c r="G43" t="n">
-        <v>75.98432295022734</v>
+        <v>75.98432295022735</v>
       </c>
       <c r="H43" t="n">
-        <v>62.39685106506717</v>
+        <v>62.39685106506718</v>
       </c>
       <c r="I43" t="n">
-        <v>34.61884066282538</v>
+        <v>34.61884066282539</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.69774406443828</v>
+        <v>41.6977440644383</v>
       </c>
       <c r="S43" t="n">
         <v>115.7226573929197</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>291.7186635429859</v>
+        <v>291.718663542986</v>
       </c>
       <c r="C44" t="n">
         <v>274.2577136505129</v>
@@ -3983,19 +3983,19 @@
         <v>263.6678635001883</v>
       </c>
       <c r="E44" t="n">
-        <v>290.9151919517671</v>
+        <v>290.9151919517672</v>
       </c>
       <c r="F44" t="n">
         <v>315.8608676212168</v>
       </c>
       <c r="G44" t="n">
-        <v>322.0772286298366</v>
+        <v>322.0772286298367</v>
       </c>
       <c r="H44" t="n">
-        <v>225.8230740502261</v>
+        <v>225.8230740502262</v>
       </c>
       <c r="I44" t="n">
-        <v>34.2469346398149</v>
+        <v>34.24693463981494</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>22.50225960428384</v>
+        <v>22.50225960428159</v>
       </c>
       <c r="T44" t="n">
         <v>122.4049485207083</v>
@@ -4034,10 +4034,10 @@
         <v>160.1536483261575</v>
       </c>
       <c r="V44" t="n">
-        <v>236.7370803496402</v>
+        <v>236.7370803496403</v>
       </c>
       <c r="W44" t="n">
-        <v>258.2257905969183</v>
+        <v>258.2257905969184</v>
       </c>
       <c r="X44" t="n">
         <v>278.7159225579744</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>26.73095892851813</v>
+        <v>26.73095892851815</v>
       </c>
       <c r="S45" t="n">
         <v>149.7163148892172</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>88.81680206144263</v>
+        <v>88.81680206144264</v>
       </c>
       <c r="C46" t="n">
-        <v>76.23164297813317</v>
+        <v>76.23164297813318</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60029489771769</v>
+        <v>57.6002948977177</v>
       </c>
       <c r="E46" t="n">
-        <v>55.4187845260745</v>
+        <v>55.41878452607452</v>
       </c>
       <c r="F46" t="n">
-        <v>54.40586990243658</v>
+        <v>54.40586990243659</v>
       </c>
       <c r="G46" t="n">
-        <v>75.98432295022734</v>
+        <v>75.98432295022735</v>
       </c>
       <c r="H46" t="n">
-        <v>62.39685106506715</v>
+        <v>62.39685106506717</v>
       </c>
       <c r="I46" t="n">
-        <v>34.61884066282596</v>
+        <v>34.61884066282549</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.69774406443828</v>
+        <v>41.6977440644383</v>
       </c>
       <c r="S46" t="n">
         <v>115.7226573929197</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.75394372784808</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C2" t="n">
-        <v>53.75394372784808</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D2" t="n">
-        <v>53.75394372784808</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E2" t="n">
-        <v>53.75394372784808</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G2" t="n">
         <v>31.35113235729608</v>
@@ -4352,28 +4352,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>517.4848137278872</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>274.0360370837871</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V2" t="n">
-        <v>274.0360370837871</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W2" t="n">
-        <v>274.0360370837871</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X2" t="n">
-        <v>274.0360370837871</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.0360370837871</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>398.1570697793896</v>
+        <v>762.5638632763679</v>
       </c>
       <c r="C3" t="n">
-        <v>223.7040404982626</v>
+        <v>588.1108339952409</v>
       </c>
       <c r="D3" t="n">
-        <v>223.7040404982626</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="E3" t="n">
-        <v>223.7040404982626</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4416,13 +4416,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>398.1570697793896</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>398.1570697793896</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>398.1570697793896</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>398.1570697793896</v>
+        <v>930.7792002964359</v>
       </c>
       <c r="Y3" t="n">
-        <v>398.1570697793896</v>
+        <v>930.7792002964359</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53.75394372784808</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="C5" t="n">
-        <v>53.75394372784808</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="D5" t="n">
-        <v>53.75394372784808</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="E5" t="n">
-        <v>53.75394372784808</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="F5" t="n">
         <v>46.80844297864461</v>
@@ -4589,28 +4589,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U5" t="n">
-        <v>366.1018663125844</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V5" t="n">
-        <v>366.1018663125844</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W5" t="n">
-        <v>122.6530896684844</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="X5" t="n">
-        <v>122.6530896684844</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="Y5" t="n">
-        <v>53.75394372784808</v>
+        <v>533.7059962668447</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>223.7040404982626</v>
+        <v>531.8759051649694</v>
       </c>
       <c r="C6" t="n">
-        <v>223.7040404982626</v>
+        <v>531.8759051649694</v>
       </c>
       <c r="D6" t="n">
-        <v>223.7040404982626</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="E6" t="n">
         <v>223.7040404982626</v>
@@ -4674,22 +4674,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>639.3158394687493</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>639.3158394687493</v>
+        <v>531.8759051649694</v>
       </c>
       <c r="V6" t="n">
-        <v>639.3158394687493</v>
+        <v>531.8759051649694</v>
       </c>
       <c r="W6" t="n">
-        <v>639.3158394687493</v>
+        <v>531.8759051649694</v>
       </c>
       <c r="X6" t="n">
-        <v>431.4643392632165</v>
+        <v>531.8759051649694</v>
       </c>
       <c r="Y6" t="n">
-        <v>223.7040404982626</v>
+        <v>531.8759051649694</v>
       </c>
     </row>
     <row r="7">
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
         <v>19.28114311021272</v>
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.75394372784808</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C8" t="n">
-        <v>53.75394372784808</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E8" t="n">
         <v>53.75394372784808</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>540.6514970160482</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>297.2027203719481</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>380.2300195200815</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C9" t="n">
-        <v>205.7769902389545</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>56.84258057770322</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
         <v>20.03527576299844</v>
@@ -4884,49 +4884,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>570.5551422697263</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>570.5551422697263</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>570.5551422697263</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>570.5551422697263</v>
       </c>
       <c r="X9" t="n">
-        <v>756.2056553051034</v>
+        <v>362.7036420641935</v>
       </c>
       <c r="Y9" t="n">
-        <v>548.4453565401495</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="10">
@@ -4945,10 +4945,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
         <v>19.28114311021272</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1779.633580269252</v>
+        <v>1768.635817725124</v>
       </c>
       <c r="C11" t="n">
-        <v>1502.605586682876</v>
+        <v>1491.607824138747</v>
       </c>
       <c r="D11" t="n">
-        <v>1236.27441143016</v>
+        <v>1225.276648886031</v>
       </c>
       <c r="E11" t="n">
-        <v>942.4206821859511</v>
+        <v>931.4229196418219</v>
       </c>
       <c r="F11" t="n">
-        <v>623.3693007503786</v>
+        <v>612.3715382062493</v>
       </c>
       <c r="G11" t="n">
-        <v>298.0387667808466</v>
+        <v>332.631630053387</v>
       </c>
       <c r="H11" t="n">
-        <v>69.93465157859798</v>
+        <v>104.5275148511383</v>
       </c>
       <c r="I11" t="n">
-        <v>69.93465157859798</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J11" t="n">
-        <v>243.8279252593004</v>
+        <v>243.8279252593009</v>
       </c>
       <c r="K11" t="n">
-        <v>625.1936695733929</v>
+        <v>625.1936695733934</v>
       </c>
       <c r="L11" t="n">
-        <v>1150.58822560315</v>
+        <v>1150.588225603151</v>
       </c>
       <c r="M11" t="n">
         <v>1751.797447352347</v>
       </c>
       <c r="N11" t="n">
-        <v>2348.102865308521</v>
+        <v>2348.102865308522</v>
       </c>
       <c r="O11" t="n">
-        <v>2865.989524423012</v>
+        <v>2865.989524423014</v>
       </c>
       <c r="P11" t="n">
-        <v>3270.319423338375</v>
+        <v>3270.319423338377</v>
       </c>
       <c r="Q11" t="n">
-        <v>3496.732578929899</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="R11" t="n">
-        <v>3496.732578929899</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="S11" t="n">
-        <v>3439.410160501518</v>
+        <v>3428.41239795739</v>
       </c>
       <c r="T11" t="n">
-        <v>3315.768798359389</v>
+        <v>3304.77103581526</v>
       </c>
       <c r="U11" t="n">
-        <v>3153.997436413775</v>
+        <v>3142.999673869647</v>
       </c>
       <c r="V11" t="n">
-        <v>2914.86907242424</v>
+        <v>2903.871309880111</v>
       </c>
       <c r="W11" t="n">
-        <v>2654.034940508161</v>
+        <v>2643.037177964032</v>
       </c>
       <c r="X11" t="n">
-        <v>2372.503705601116</v>
+        <v>2361.505943056987</v>
       </c>
       <c r="Y11" t="n">
-        <v>2074.298896979339</v>
+        <v>2063.30113443521</v>
       </c>
     </row>
     <row r="12">
@@ -5115,22 +5115,22 @@
         <v>119.1052045322123</v>
       </c>
       <c r="I12" t="n">
-        <v>69.93465157859798</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J12" t="n">
-        <v>179.810914411636</v>
+        <v>179.8109144116361</v>
       </c>
       <c r="K12" t="n">
-        <v>494.2277915417637</v>
+        <v>494.227791541764</v>
       </c>
       <c r="L12" t="n">
-        <v>978.4044805826618</v>
+        <v>978.4044805826622</v>
       </c>
       <c r="M12" t="n">
-        <v>1253.111620988645</v>
+        <v>1337.7368755048</v>
       </c>
       <c r="N12" t="n">
-        <v>1902.139119744109</v>
+        <v>1512.215423660147</v>
       </c>
       <c r="O12" t="n">
         <v>2039.533108956335</v>
@@ -5179,13 +5179,13 @@
         <v>413.7982515829905</v>
       </c>
       <c r="D13" t="n">
-        <v>355.6161355246899</v>
+        <v>355.6161355246898</v>
       </c>
       <c r="E13" t="n">
-        <v>299.6375652963318</v>
+        <v>299.6375652963317</v>
       </c>
       <c r="F13" t="n">
-        <v>244.6821411524564</v>
+        <v>244.6821411524563</v>
       </c>
       <c r="G13" t="n">
         <v>167.9302997885904</v>
@@ -5194,37 +5194,37 @@
         <v>104.9031775006438</v>
       </c>
       <c r="I13" t="n">
-        <v>69.93465157859798</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J13" t="n">
-        <v>137.0106293959408</v>
+        <v>137.0106293959413</v>
       </c>
       <c r="K13" t="n">
         <v>319.1086914830887</v>
       </c>
       <c r="L13" t="n">
-        <v>582.4595660889144</v>
+        <v>582.4595660889145</v>
       </c>
       <c r="M13" t="n">
-        <v>865.6171716594304</v>
+        <v>865.6171716594311</v>
       </c>
       <c r="N13" t="n">
         <v>1149.619034811413</v>
       </c>
       <c r="O13" t="n">
-        <v>1402.802877545182</v>
+        <v>1402.802877545183</v>
       </c>
       <c r="P13" t="n">
-        <v>1608.929321817165</v>
+        <v>1608.929321817166</v>
       </c>
       <c r="Q13" t="n">
-        <v>1695.926483912367</v>
+        <v>1695.926483912368</v>
       </c>
       <c r="R13" t="n">
         <v>1653.807550513945</v>
       </c>
       <c r="S13" t="n">
-        <v>1536.915977389783</v>
+        <v>1536.915977389784</v>
       </c>
       <c r="T13" t="n">
         <v>1402.881538008514</v>
@@ -5236,10 +5236,10 @@
         <v>1042.90958264947</v>
       </c>
       <c r="W13" t="n">
-        <v>845.4269359665445</v>
+        <v>845.4269359665448</v>
       </c>
       <c r="X13" t="n">
-        <v>709.3719084225622</v>
+        <v>709.3719084225625</v>
       </c>
       <c r="Y13" t="n">
         <v>580.5138526330671</v>
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1779.633580269252</v>
+        <v>1768.635817725124</v>
       </c>
       <c r="C14" t="n">
-        <v>1502.605586682876</v>
+        <v>1491.607824138747</v>
       </c>
       <c r="D14" t="n">
-        <v>1236.27441143016</v>
+        <v>1225.276648886031</v>
       </c>
       <c r="E14" t="n">
-        <v>942.4206821859511</v>
+        <v>931.4229196418219</v>
       </c>
       <c r="F14" t="n">
-        <v>623.3693007503787</v>
+        <v>612.3715382062493</v>
       </c>
       <c r="G14" t="n">
-        <v>298.0387667808467</v>
+        <v>332.631630053387</v>
       </c>
       <c r="H14" t="n">
-        <v>69.93465157859799</v>
+        <v>104.5275148511383</v>
       </c>
       <c r="I14" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J14" t="n">
-        <v>243.8279252593007</v>
+        <v>243.8279252593006</v>
       </c>
       <c r="K14" t="n">
-        <v>625.1936695733932</v>
+        <v>625.193669573393</v>
       </c>
       <c r="L14" t="n">
-        <v>1150.58822560315</v>
+        <v>1150.588225603151</v>
       </c>
       <c r="M14" t="n">
         <v>1751.797447352347</v>
@@ -5291,37 +5291,37 @@
         <v>2348.102865308522</v>
       </c>
       <c r="O14" t="n">
-        <v>2865.989524423013</v>
+        <v>2865.989524423014</v>
       </c>
       <c r="P14" t="n">
-        <v>3270.319423338376</v>
+        <v>3270.319423338377</v>
       </c>
       <c r="Q14" t="n">
-        <v>3496.7325789299</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="R14" t="n">
-        <v>3496.7325789299</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="S14" t="n">
-        <v>3428.412397957389</v>
+        <v>3428.41239795739</v>
       </c>
       <c r="T14" t="n">
-        <v>3304.771035815259</v>
+        <v>3304.77103581526</v>
       </c>
       <c r="U14" t="n">
-        <v>3153.997436413775</v>
+        <v>3142.999673869647</v>
       </c>
       <c r="V14" t="n">
-        <v>2914.86907242424</v>
+        <v>2903.871309880111</v>
       </c>
       <c r="W14" t="n">
-        <v>2654.034940508161</v>
+        <v>2643.037177964032</v>
       </c>
       <c r="X14" t="n">
-        <v>2372.503705601116</v>
+        <v>2361.505943056987</v>
       </c>
       <c r="Y14" t="n">
-        <v>2074.298896979339</v>
+        <v>2063.30113443521</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>119.1052045322123</v>
       </c>
       <c r="I15" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J15" t="n">
-        <v>179.810914411636</v>
+        <v>179.8109144116361</v>
       </c>
       <c r="K15" t="n">
-        <v>494.2277915417637</v>
+        <v>494.227791541764</v>
       </c>
       <c r="L15" t="n">
-        <v>611.2725387322373</v>
+        <v>636.1210403766648</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.263119344217</v>
+        <v>1253.111620988644</v>
       </c>
       <c r="N15" t="n">
-        <v>1877.290618099681</v>
+        <v>1902.139119744109</v>
       </c>
       <c r="O15" t="n">
-        <v>2404.608303395869</v>
+        <v>2039.533108956335</v>
       </c>
       <c r="P15" t="n">
-        <v>2653.725487735952</v>
+        <v>2445.748972877462</v>
       </c>
       <c r="Q15" t="n">
         <v>2664.59575085658</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>490.7999111568623</v>
+        <v>490.7999111568628</v>
       </c>
       <c r="C16" t="n">
-        <v>413.7982515829905</v>
+        <v>413.7982515829909</v>
       </c>
       <c r="D16" t="n">
-        <v>355.6161355246898</v>
+        <v>355.6161355246902</v>
       </c>
       <c r="E16" t="n">
-        <v>299.6375652963317</v>
+        <v>299.637565296332</v>
       </c>
       <c r="F16" t="n">
-        <v>244.6821411524564</v>
+        <v>244.6821411524566</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9302997885904</v>
+        <v>167.9302997885906</v>
       </c>
       <c r="H16" t="n">
-        <v>104.9031775006438</v>
+        <v>104.9031775006439</v>
       </c>
       <c r="I16" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J16" t="n">
-        <v>137.0106293959402</v>
+        <v>137.0106293959408</v>
       </c>
       <c r="K16" t="n">
-        <v>319.1086914830881</v>
+        <v>319.1086914830887</v>
       </c>
       <c r="L16" t="n">
-        <v>582.4595660889138</v>
+        <v>582.4595660889144</v>
       </c>
       <c r="M16" t="n">
-        <v>865.6171716594304</v>
+        <v>865.6171716594313</v>
       </c>
       <c r="N16" t="n">
         <v>1149.619034811413</v>
       </c>
       <c r="O16" t="n">
-        <v>1402.802877545182</v>
+        <v>1402.802877545183</v>
       </c>
       <c r="P16" t="n">
-        <v>1608.929321817165</v>
+        <v>1608.929321817166</v>
       </c>
       <c r="Q16" t="n">
-        <v>1695.926483912367</v>
+        <v>1695.926483912368</v>
       </c>
       <c r="R16" t="n">
         <v>1653.807550513945</v>
       </c>
       <c r="S16" t="n">
-        <v>1536.915977389783</v>
+        <v>1536.915977389784</v>
       </c>
       <c r="T16" t="n">
-        <v>1402.881538008513</v>
+        <v>1402.881538008514</v>
       </c>
       <c r="U16" t="n">
-        <v>1205.659547501322</v>
+        <v>1205.659547501323</v>
       </c>
       <c r="V16" t="n">
-        <v>1042.90958264947</v>
+        <v>1042.909582649471</v>
       </c>
       <c r="W16" t="n">
-        <v>845.4269359665444</v>
+        <v>845.426935966545</v>
       </c>
       <c r="X16" t="n">
-        <v>709.3719084225621</v>
+        <v>709.3719084225626</v>
       </c>
       <c r="Y16" t="n">
-        <v>580.513852633067</v>
+        <v>580.5138526330675</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1518.962199628748</v>
       </c>
       <c r="D17" t="n">
-        <v>1255.670399430478</v>
+        <v>1255.670399430477</v>
       </c>
       <c r="E17" t="n">
-        <v>964.8560452407129</v>
+        <v>964.8560452407128</v>
       </c>
       <c r="F17" t="n">
         <v>648.844038859585</v>
       </c>
       <c r="G17" t="n">
-        <v>326.5528799444976</v>
+        <v>326.5528799444978</v>
       </c>
       <c r="H17" t="n">
-        <v>101.4881397966936</v>
+        <v>101.4881397966938</v>
       </c>
       <c r="I17" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J17" t="n">
-        <v>243.8279252593011</v>
+        <v>243.8279252593009</v>
       </c>
       <c r="K17" t="n">
-        <v>625.1936695733932</v>
+        <v>625.1936695733934</v>
       </c>
       <c r="L17" t="n">
         <v>1150.588225603151</v>
@@ -5525,13 +5525,13 @@
         <v>1751.797447352347</v>
       </c>
       <c r="N17" t="n">
-        <v>2348.102865308521</v>
+        <v>2348.102865308522</v>
       </c>
       <c r="O17" t="n">
         <v>2865.989524423013</v>
       </c>
       <c r="P17" t="n">
-        <v>3270.319423338376</v>
+        <v>3270.319423338377</v>
       </c>
       <c r="Q17" t="n">
         <v>3496.7325789299</v>
@@ -5540,22 +5540,22 @@
         <v>3496.7325789299</v>
       </c>
       <c r="S17" t="n">
-        <v>3431.451773011834</v>
+        <v>3431.451773011835</v>
       </c>
       <c r="T17" t="n">
-        <v>3310.849785924149</v>
+        <v>3310.84978592415</v>
       </c>
       <c r="U17" t="n">
-        <v>3152.117799032981</v>
+        <v>3152.11779903298</v>
       </c>
       <c r="V17" t="n">
-        <v>2916.02881009789</v>
+        <v>2916.028810097889</v>
       </c>
       <c r="W17" t="n">
-        <v>2658.234053236255</v>
+        <v>2658.234053236254</v>
       </c>
       <c r="X17" t="n">
-        <v>2379.742193383655</v>
+        <v>2379.742193383654</v>
       </c>
       <c r="Y17" t="n">
         <v>2084.576759816322</v>
@@ -5589,19 +5589,19 @@
         <v>119.1052045322123</v>
       </c>
       <c r="I18" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J18" t="n">
-        <v>69.93465157859799</v>
+        <v>179.810914411636</v>
       </c>
       <c r="K18" t="n">
-        <v>129.1525971022299</v>
+        <v>494.2277915417638</v>
       </c>
       <c r="L18" t="n">
-        <v>246.1973442927034</v>
+        <v>978.404480582662</v>
       </c>
       <c r="M18" t="n">
-        <v>863.1879249046826</v>
+        <v>1337.7368755048</v>
       </c>
       <c r="N18" t="n">
         <v>1512.215423660147</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>469.5242857757498</v>
+        <v>469.5242857757499</v>
       </c>
       <c r="C19" t="n">
-        <v>395.5620012563226</v>
+        <v>395.5620012563227</v>
       </c>
       <c r="D19" t="n">
-        <v>340.4192602524666</v>
+        <v>340.4192602524667</v>
       </c>
       <c r="E19" t="n">
-        <v>287.4800650785531</v>
+        <v>287.4800650785533</v>
       </c>
       <c r="F19" t="n">
         <v>235.5640159891225</v>
       </c>
       <c r="G19" t="n">
-        <v>161.8515496797011</v>
+        <v>161.8515496797012</v>
       </c>
       <c r="H19" t="n">
         <v>101.8638024461992</v>
       </c>
       <c r="I19" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J19" t="n">
         <v>139.989520886802</v>
@@ -5689,10 +5689,10 @@
         <v>1420.67622649035</v>
       </c>
       <c r="P19" t="n">
-        <v>1557.320429455189</v>
+        <v>1629.781562253194</v>
       </c>
       <c r="Q19" t="n">
-        <v>1647.296483041252</v>
+        <v>1647.296483041253</v>
       </c>
       <c r="R19" t="n">
         <v>1608.216924697275</v>
@@ -5710,13 +5710,13 @@
         <v>1009.476457050579</v>
       </c>
       <c r="W19" t="n">
-        <v>815.0331854220979</v>
+        <v>815.0331854220981</v>
       </c>
       <c r="X19" t="n">
-        <v>682.0175329325602</v>
+        <v>682.0175329325604</v>
       </c>
       <c r="Y19" t="n">
-        <v>556.1988521975098</v>
+        <v>556.19885219751</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1518.962199628748</v>
       </c>
       <c r="D20" t="n">
-        <v>1255.670399430478</v>
+        <v>1255.670399430477</v>
       </c>
       <c r="E20" t="n">
-        <v>964.856045240713</v>
+        <v>964.8560452407123</v>
       </c>
       <c r="F20" t="n">
-        <v>648.8440388595851</v>
+        <v>648.8440388595847</v>
       </c>
       <c r="G20" t="n">
-        <v>326.5528799444978</v>
+        <v>326.5528799444974</v>
       </c>
       <c r="H20" t="n">
         <v>101.4881397966937</v>
       </c>
       <c r="I20" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859799</v>
       </c>
       <c r="J20" t="n">
-        <v>243.8279252593007</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K20" t="n">
-        <v>625.1936695733931</v>
+        <v>625.1936695733934</v>
       </c>
       <c r="L20" t="n">
         <v>1150.588225603151</v>
@@ -5762,13 +5762,13 @@
         <v>1751.797447352347</v>
       </c>
       <c r="N20" t="n">
-        <v>2348.102865308522</v>
+        <v>2348.102865308521</v>
       </c>
       <c r="O20" t="n">
-        <v>2865.989524423014</v>
+        <v>2865.989524423013</v>
       </c>
       <c r="P20" t="n">
-        <v>3270.319423338377</v>
+        <v>3270.319423338376</v>
       </c>
       <c r="Q20" t="n">
         <v>3496.7325789299</v>
@@ -5777,7 +5777,7 @@
         <v>3496.7325789299</v>
       </c>
       <c r="S20" t="n">
-        <v>3431.451773011835</v>
+        <v>3431.451773011834</v>
       </c>
       <c r="T20" t="n">
         <v>3310.849785924149</v>
@@ -5823,31 +5823,31 @@
         <v>220.937241300597</v>
       </c>
       <c r="H21" t="n">
-        <v>119.1052045322124</v>
+        <v>119.1052045322123</v>
       </c>
       <c r="I21" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859799</v>
       </c>
       <c r="J21" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859799</v>
       </c>
       <c r="K21" t="n">
         <v>122.5309440662729</v>
       </c>
       <c r="L21" t="n">
-        <v>561.4754852462412</v>
+        <v>606.707633107171</v>
       </c>
       <c r="M21" t="n">
-        <v>1178.46606585822</v>
+        <v>1223.69821371915</v>
       </c>
       <c r="N21" t="n">
-        <v>1827.493564613685</v>
+        <v>1872.725712474615</v>
       </c>
       <c r="O21" t="n">
-        <v>2354.811249909873</v>
+        <v>2400.043397770803</v>
       </c>
       <c r="P21" t="n">
-        <v>2445.748972877462</v>
+        <v>2653.725487735952</v>
       </c>
       <c r="Q21" t="n">
         <v>2664.59575085658</v>
@@ -5899,34 +5899,34 @@
         <v>235.5640159891225</v>
       </c>
       <c r="G22" t="n">
-        <v>161.8515496797012</v>
+        <v>161.8515496797011</v>
       </c>
       <c r="H22" t="n">
         <v>101.8638024461992</v>
       </c>
       <c r="I22" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859799</v>
       </c>
       <c r="J22" t="n">
-        <v>69.93465157859801</v>
+        <v>139.989520886802</v>
       </c>
       <c r="K22" t="n">
-        <v>252.6053416668063</v>
+        <v>325.0664744648111</v>
       </c>
       <c r="L22" t="n">
-        <v>518.9351077634931</v>
+        <v>591.396240561498</v>
       </c>
       <c r="M22" t="n">
-        <v>805.071604824871</v>
+        <v>877.5327376228759</v>
       </c>
       <c r="N22" t="n">
-        <v>1092.052359467714</v>
+        <v>1164.513492265719</v>
       </c>
       <c r="O22" t="n">
-        <v>1348.215093692345</v>
+        <v>1420.67622649035</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.320429455189</v>
+        <v>1629.781562253194</v>
       </c>
       <c r="Q22" t="n">
         <v>1647.296483041252</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1792.95081816068</v>
+        <v>1792.950818160681</v>
       </c>
       <c r="C23" t="n">
-        <v>1518.962199628748</v>
+        <v>1518.962199628749</v>
       </c>
       <c r="D23" t="n">
         <v>1255.670399430478</v>
       </c>
       <c r="E23" t="n">
-        <v>964.8560452407129</v>
+        <v>964.8560452407132</v>
       </c>
       <c r="F23" t="n">
-        <v>648.844038859585</v>
+        <v>648.8440388595855</v>
       </c>
       <c r="G23" t="n">
-        <v>326.5528799444978</v>
+        <v>326.5528799444977</v>
       </c>
       <c r="H23" t="n">
         <v>101.4881397966937</v>
@@ -5987,10 +5987,10 @@
         <v>69.93465157859801</v>
       </c>
       <c r="J23" t="n">
-        <v>243.8279252593011</v>
+        <v>243.8279252593007</v>
       </c>
       <c r="K23" t="n">
-        <v>625.1936695733934</v>
+        <v>625.1936695733932</v>
       </c>
       <c r="L23" t="n">
         <v>1150.588225603151</v>
@@ -6032,7 +6032,7 @@
         <v>2379.742193383655</v>
       </c>
       <c r="Y23" t="n">
-        <v>2084.576759816322</v>
+        <v>2084.576759816323</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6069,22 @@
         <v>69.93465157859801</v>
       </c>
       <c r="K24" t="n">
-        <v>122.530944066273</v>
+        <v>384.3515287087258</v>
       </c>
       <c r="L24" t="n">
-        <v>606.7076331071711</v>
+        <v>868.5282177496239</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.69821371915</v>
+        <v>1024.470785249103</v>
       </c>
       <c r="N24" t="n">
-        <v>1872.725712474615</v>
+        <v>1512.215423660147</v>
       </c>
       <c r="O24" t="n">
-        <v>2400.043397770803</v>
+        <v>2039.533108956335</v>
       </c>
       <c r="P24" t="n">
-        <v>2653.725487735952</v>
+        <v>2445.748972877462</v>
       </c>
       <c r="Q24" t="n">
         <v>2664.59575085658</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>469.5242857757498</v>
+        <v>469.5242857757501</v>
       </c>
       <c r="C25" t="n">
-        <v>395.5620012563226</v>
+        <v>395.5620012563228</v>
       </c>
       <c r="D25" t="n">
-        <v>340.4192602524666</v>
+        <v>340.4192602524668</v>
       </c>
       <c r="E25" t="n">
-        <v>287.4800650785531</v>
+        <v>287.4800650785533</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5640159891225</v>
+        <v>235.5640159891226</v>
       </c>
       <c r="G25" t="n">
         <v>161.8515496797012</v>
@@ -6145,37 +6145,37 @@
         <v>69.93465157859801</v>
       </c>
       <c r="J25" t="n">
-        <v>139.989520886802</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="K25" t="n">
-        <v>325.0664744648111</v>
+        <v>255.0116051566071</v>
       </c>
       <c r="L25" t="n">
-        <v>591.396240561498</v>
+        <v>521.3413712532939</v>
       </c>
       <c r="M25" t="n">
-        <v>877.5327376228759</v>
+        <v>807.4778683146717</v>
       </c>
       <c r="N25" t="n">
-        <v>1164.513492265719</v>
+        <v>1094.458622957515</v>
       </c>
       <c r="O25" t="n">
-        <v>1420.67622649035</v>
+        <v>1350.621357182146</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.320429455189</v>
+        <v>1559.72669294499</v>
       </c>
       <c r="Q25" t="n">
-        <v>1647.296483041252</v>
+        <v>1647.296483041253</v>
       </c>
       <c r="R25" t="n">
         <v>1608.216924697275</v>
       </c>
       <c r="S25" t="n">
-        <v>1494.364726627558</v>
+        <v>1494.364726627559</v>
       </c>
       <c r="T25" t="n">
-        <v>1363.369662300733</v>
+        <v>1363.369662300734</v>
       </c>
       <c r="U25" t="n">
         <v>1169.187046847986</v>
@@ -6184,13 +6184,13 @@
         <v>1009.476457050579</v>
       </c>
       <c r="W25" t="n">
-        <v>815.0331854220979</v>
+        <v>815.0331854220983</v>
       </c>
       <c r="X25" t="n">
-        <v>682.0175329325602</v>
+        <v>682.0175329325606</v>
       </c>
       <c r="Y25" t="n">
-        <v>556.1988521975098</v>
+        <v>556.1988521975102</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1768.635817725123</v>
+        <v>1779.633580269253</v>
       </c>
       <c r="C26" t="n">
-        <v>1491.607824138746</v>
+        <v>1502.605586682876</v>
       </c>
       <c r="D26" t="n">
-        <v>1225.276648886031</v>
+        <v>1236.27441143016</v>
       </c>
       <c r="E26" t="n">
-        <v>977.0135454584916</v>
+        <v>942.4206821859513</v>
       </c>
       <c r="F26" t="n">
-        <v>657.9621640229191</v>
+        <v>623.3693007503787</v>
       </c>
       <c r="G26" t="n">
-        <v>332.6316300533871</v>
+        <v>298.0387667808467</v>
       </c>
       <c r="H26" t="n">
-        <v>104.5275148511384</v>
+        <v>69.93465157859799</v>
       </c>
       <c r="I26" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859799</v>
       </c>
       <c r="J26" t="n">
-        <v>243.8279252593011</v>
+        <v>243.8279252593007</v>
       </c>
       <c r="K26" t="n">
-        <v>625.1936695733939</v>
+        <v>625.1936695733932</v>
       </c>
       <c r="L26" t="n">
-        <v>1150.588225603152</v>
+        <v>1150.588225603151</v>
       </c>
       <c r="M26" t="n">
         <v>1751.797447352347</v>
@@ -6239,10 +6239,10 @@
         <v>2348.102865308522</v>
       </c>
       <c r="O26" t="n">
-        <v>2865.989524423014</v>
+        <v>2865.989524423013</v>
       </c>
       <c r="P26" t="n">
-        <v>3270.319423338377</v>
+        <v>3270.319423338376</v>
       </c>
       <c r="Q26" t="n">
         <v>3496.7325789299</v>
@@ -6251,25 +6251,25 @@
         <v>3496.7325789299</v>
       </c>
       <c r="S26" t="n">
-        <v>3428.41239795739</v>
+        <v>3428.412397957389</v>
       </c>
       <c r="T26" t="n">
-        <v>3304.77103581526</v>
+        <v>3304.771035815259</v>
       </c>
       <c r="U26" t="n">
-        <v>3142.999673869646</v>
+        <v>3153.997436413776</v>
       </c>
       <c r="V26" t="n">
-        <v>2903.871309880111</v>
+        <v>2914.86907242424</v>
       </c>
       <c r="W26" t="n">
-        <v>2643.037177964032</v>
+        <v>2654.034940508161</v>
       </c>
       <c r="X26" t="n">
-        <v>2361.505943056987</v>
+        <v>2372.503705601116</v>
       </c>
       <c r="Y26" t="n">
-        <v>2063.30113443521</v>
+        <v>2074.29889697934</v>
       </c>
     </row>
     <row r="27">
@@ -6297,22 +6297,22 @@
         <v>220.937241300597</v>
       </c>
       <c r="H27" t="n">
-        <v>119.1052045322124</v>
+        <v>119.1052045322123</v>
       </c>
       <c r="I27" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859799</v>
       </c>
       <c r="J27" t="n">
         <v>179.810914411636</v>
       </c>
       <c r="K27" t="n">
-        <v>494.2277915417638</v>
+        <v>236.569605851923</v>
       </c>
       <c r="L27" t="n">
-        <v>978.4044805826619</v>
+        <v>720.7462948928211</v>
       </c>
       <c r="M27" t="n">
-        <v>1134.347048082141</v>
+        <v>1337.7368755048</v>
       </c>
       <c r="N27" t="n">
         <v>1512.215423660147</v>
@@ -6358,61 +6358,61 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>490.7999111568622</v>
+        <v>490.7999111568625</v>
       </c>
       <c r="C28" t="n">
-        <v>413.7982515829901</v>
+        <v>413.7982515829906</v>
       </c>
       <c r="D28" t="n">
-        <v>355.6161355246894</v>
+        <v>355.6161355246899</v>
       </c>
       <c r="E28" t="n">
-        <v>299.6375652963313</v>
+        <v>299.6375652963318</v>
       </c>
       <c r="F28" t="n">
-        <v>244.682141152456</v>
+        <v>244.6821411524564</v>
       </c>
       <c r="G28" t="n">
-        <v>167.93029978859</v>
+        <v>167.9302997885905</v>
       </c>
       <c r="H28" t="n">
-        <v>104.9031775006433</v>
+        <v>104.9031775006438</v>
       </c>
       <c r="I28" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859799</v>
       </c>
       <c r="J28" t="n">
-        <v>137.0106293959407</v>
+        <v>137.0106293959408</v>
       </c>
       <c r="K28" t="n">
-        <v>319.1086914830886</v>
+        <v>319.1086914830889</v>
       </c>
       <c r="L28" t="n">
-        <v>582.4595660889142</v>
+        <v>582.4595660889145</v>
       </c>
       <c r="M28" t="n">
-        <v>865.6171716594304</v>
+        <v>865.6171716594311</v>
       </c>
       <c r="N28" t="n">
         <v>1149.619034811413</v>
       </c>
       <c r="O28" t="n">
-        <v>1402.802877545182</v>
+        <v>1402.802877545183</v>
       </c>
       <c r="P28" t="n">
-        <v>1608.929321817165</v>
+        <v>1608.929321817166</v>
       </c>
       <c r="Q28" t="n">
-        <v>1695.926483912367</v>
+        <v>1695.926483912368</v>
       </c>
       <c r="R28" t="n">
-        <v>1653.807550513944</v>
+        <v>1653.807550513945</v>
       </c>
       <c r="S28" t="n">
-        <v>1536.915977389783</v>
+        <v>1536.915977389784</v>
       </c>
       <c r="T28" t="n">
-        <v>1402.881538008513</v>
+        <v>1402.881538008514</v>
       </c>
       <c r="U28" t="n">
         <v>1205.659547501322</v>
@@ -6421,13 +6421,13 @@
         <v>1042.90958264947</v>
       </c>
       <c r="W28" t="n">
-        <v>845.4269359665443</v>
+        <v>845.4269359665448</v>
       </c>
       <c r="X28" t="n">
-        <v>709.371908422562</v>
+        <v>709.3719084225623</v>
       </c>
       <c r="Y28" t="n">
-        <v>580.5138526330669</v>
+        <v>580.5138526330672</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1779.633580269253</v>
+        <v>1814.226443541793</v>
       </c>
       <c r="C29" t="n">
-        <v>1502.605586682876</v>
+        <v>1537.198449955416</v>
       </c>
       <c r="D29" t="n">
-        <v>1236.27441143016</v>
+        <v>1270.867274702701</v>
       </c>
       <c r="E29" t="n">
-        <v>942.4206821859513</v>
+        <v>977.0135454584913</v>
       </c>
       <c r="F29" t="n">
-        <v>623.3693007503787</v>
+        <v>657.9621640229188</v>
       </c>
       <c r="G29" t="n">
-        <v>298.0387667808467</v>
+        <v>332.631630053387</v>
       </c>
       <c r="H29" t="n">
-        <v>69.93465157859801</v>
+        <v>104.5275148511383</v>
       </c>
       <c r="I29" t="n">
         <v>69.93465157859801</v>
       </c>
       <c r="J29" t="n">
-        <v>243.8279252593007</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K29" t="n">
-        <v>625.1936695733932</v>
+        <v>625.1936695733938</v>
       </c>
       <c r="L29" t="n">
         <v>1150.588225603151</v>
@@ -6491,22 +6491,22 @@
         <v>3428.41239795739</v>
       </c>
       <c r="T29" t="n">
-        <v>3315.76879835939</v>
+        <v>3304.77103581526</v>
       </c>
       <c r="U29" t="n">
-        <v>3153.997436413776</v>
+        <v>3188.590299686315</v>
       </c>
       <c r="V29" t="n">
-        <v>2914.869072424241</v>
+        <v>2949.46193569678</v>
       </c>
       <c r="W29" t="n">
-        <v>2654.034940508162</v>
+        <v>2688.627803780701</v>
       </c>
       <c r="X29" t="n">
-        <v>2372.503705601117</v>
+        <v>2407.096568873656</v>
       </c>
       <c r="Y29" t="n">
-        <v>2074.29889697934</v>
+        <v>2108.89176025188</v>
       </c>
     </row>
     <row r="30">
@@ -6549,13 +6549,13 @@
         <v>978.4044805826619</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.7368755048</v>
+        <v>1595.395061194641</v>
       </c>
       <c r="N30" t="n">
-        <v>1512.215423660147</v>
+        <v>1827.493564613684</v>
       </c>
       <c r="O30" t="n">
-        <v>2039.533108956335</v>
+        <v>2354.811249909873</v>
       </c>
       <c r="P30" t="n">
         <v>2445.748972877462</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>490.7999111568628</v>
+        <v>490.7999111568622</v>
       </c>
       <c r="C31" t="n">
-        <v>413.7982515829909</v>
+        <v>413.7982515829902</v>
       </c>
       <c r="D31" t="n">
-        <v>355.6161355246902</v>
+        <v>355.6161355246895</v>
       </c>
       <c r="E31" t="n">
-        <v>299.637565296332</v>
+        <v>299.6375652963314</v>
       </c>
       <c r="F31" t="n">
-        <v>244.6821411524566</v>
+        <v>244.6821411524562</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9302997885906</v>
+        <v>167.9302997885902</v>
       </c>
       <c r="H31" t="n">
-        <v>104.9031775006439</v>
+        <v>104.9031775006436</v>
       </c>
       <c r="I31" t="n">
         <v>69.93465157859801</v>
@@ -6625,10 +6625,10 @@
         <v>319.1086914830886</v>
       </c>
       <c r="L31" t="n">
-        <v>582.4595660889142</v>
+        <v>582.4595660889145</v>
       </c>
       <c r="M31" t="n">
-        <v>865.6171716594313</v>
+        <v>865.6171716594308</v>
       </c>
       <c r="N31" t="n">
         <v>1149.619034811413</v>
@@ -6652,19 +6652,19 @@
         <v>1402.881538008514</v>
       </c>
       <c r="U31" t="n">
-        <v>1205.659547501323</v>
+        <v>1205.659547501322</v>
       </c>
       <c r="V31" t="n">
-        <v>1042.909582649471</v>
+        <v>1042.90958264947</v>
       </c>
       <c r="W31" t="n">
-        <v>845.426935966545</v>
+        <v>845.4269359665442</v>
       </c>
       <c r="X31" t="n">
-        <v>709.3719084225626</v>
+        <v>709.3719084225619</v>
       </c>
       <c r="Y31" t="n">
-        <v>580.5138526330675</v>
+        <v>580.5138526330668</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1792.950818160681</v>
+        <v>1792.95081816068</v>
       </c>
       <c r="C32" t="n">
-        <v>1518.962199628749</v>
+        <v>1518.962199628748</v>
       </c>
       <c r="D32" t="n">
-        <v>1255.670399430478</v>
+        <v>1255.670399430477</v>
       </c>
       <c r="E32" t="n">
-        <v>964.8560452407137</v>
+        <v>964.8560452407124</v>
       </c>
       <c r="F32" t="n">
-        <v>648.8440388595859</v>
+        <v>648.8440388595845</v>
       </c>
       <c r="G32" t="n">
-        <v>326.5528799444977</v>
+        <v>326.5528799444976</v>
       </c>
       <c r="H32" t="n">
-        <v>101.4881397966938</v>
+        <v>101.4881397966937</v>
       </c>
       <c r="I32" t="n">
         <v>69.93465157859801</v>
@@ -6728,22 +6728,22 @@
         <v>3431.451773011835</v>
       </c>
       <c r="T32" t="n">
-        <v>3310.84978592415</v>
+        <v>3310.849785924149</v>
       </c>
       <c r="U32" t="n">
-        <v>3152.117799032981</v>
+        <v>3152.11779903298</v>
       </c>
       <c r="V32" t="n">
-        <v>2916.02881009789</v>
+        <v>2916.028810097889</v>
       </c>
       <c r="W32" t="n">
         <v>2658.234053236255</v>
       </c>
       <c r="X32" t="n">
-        <v>2379.742193383655</v>
+        <v>2379.742193383654</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.576759816323</v>
+        <v>2084.576759816322</v>
       </c>
     </row>
     <row r="33">
@@ -6832,61 +6832,61 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>469.5242857757496</v>
+        <v>469.5242857757501</v>
       </c>
       <c r="C34" t="n">
-        <v>395.5620012563224</v>
+        <v>395.5620012563228</v>
       </c>
       <c r="D34" t="n">
-        <v>340.4192602524664</v>
+        <v>340.4192602524668</v>
       </c>
       <c r="E34" t="n">
-        <v>287.480065078553</v>
+        <v>287.4800650785533</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5640159891224</v>
+        <v>235.5640159891226</v>
       </c>
       <c r="G34" t="n">
-        <v>161.8515496797011</v>
+        <v>161.8515496797012</v>
       </c>
       <c r="H34" t="n">
-        <v>101.8638024461991</v>
+        <v>101.8638024461992</v>
       </c>
       <c r="I34" t="n">
         <v>69.93465157859801</v>
       </c>
       <c r="J34" t="n">
-        <v>139.989520886802</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="K34" t="n">
-        <v>325.0664744648112</v>
+        <v>255.0116051566071</v>
       </c>
       <c r="L34" t="n">
-        <v>591.3962405614981</v>
+        <v>521.3413712532939</v>
       </c>
       <c r="M34" t="n">
-        <v>877.5327376228759</v>
+        <v>807.4778683146717</v>
       </c>
       <c r="N34" t="n">
-        <v>1164.513492265719</v>
+        <v>1094.458622957515</v>
       </c>
       <c r="O34" t="n">
-        <v>1420.67622649035</v>
+        <v>1350.621357182146</v>
       </c>
       <c r="P34" t="n">
-        <v>1629.781562253194</v>
+        <v>1559.72669294499</v>
       </c>
       <c r="Q34" t="n">
-        <v>1647.296483041252</v>
+        <v>1647.296483041253</v>
       </c>
       <c r="R34" t="n">
-        <v>1608.216924697274</v>
+        <v>1608.216924697275</v>
       </c>
       <c r="S34" t="n">
-        <v>1494.364726627558</v>
+        <v>1494.364726627559</v>
       </c>
       <c r="T34" t="n">
-        <v>1363.369662300733</v>
+        <v>1363.369662300734</v>
       </c>
       <c r="U34" t="n">
         <v>1169.187046847986</v>
@@ -6895,13 +6895,13 @@
         <v>1009.476457050579</v>
       </c>
       <c r="W34" t="n">
-        <v>815.0331854220976</v>
+        <v>815.0331854220983</v>
       </c>
       <c r="X34" t="n">
-        <v>682.01753293256</v>
+        <v>682.0175329325606</v>
       </c>
       <c r="Y34" t="n">
-        <v>556.1988521975096</v>
+        <v>556.1988521975102</v>
       </c>
     </row>
     <row r="35">
@@ -6920,25 +6920,25 @@
         <v>1255.670399430477</v>
       </c>
       <c r="E35" t="n">
-        <v>964.8560452407125</v>
+        <v>964.8560452407123</v>
       </c>
       <c r="F35" t="n">
         <v>648.8440388595848</v>
       </c>
       <c r="G35" t="n">
-        <v>326.5528799444976</v>
+        <v>326.5528799444974</v>
       </c>
       <c r="H35" t="n">
-        <v>101.4881397966936</v>
+        <v>101.4881397966937</v>
       </c>
       <c r="I35" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J35" t="n">
-        <v>243.8279252593007</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K35" t="n">
-        <v>625.1936695733932</v>
+        <v>625.1936695733939</v>
       </c>
       <c r="L35" t="n">
         <v>1150.588225603151</v>
@@ -6947,13 +6947,13 @@
         <v>1751.797447352347</v>
       </c>
       <c r="N35" t="n">
-        <v>2348.102865308521</v>
+        <v>2348.102865308522</v>
       </c>
       <c r="O35" t="n">
-        <v>2865.989524423013</v>
+        <v>2865.989524423014</v>
       </c>
       <c r="P35" t="n">
-        <v>3270.319423338376</v>
+        <v>3270.319423338377</v>
       </c>
       <c r="Q35" t="n">
         <v>3496.7325789299</v>
@@ -6962,7 +6962,7 @@
         <v>3496.7325789299</v>
       </c>
       <c r="S35" t="n">
-        <v>3431.451773011834</v>
+        <v>3431.451773011835</v>
       </c>
       <c r="T35" t="n">
         <v>3310.849785924149</v>
@@ -7008,31 +7008,31 @@
         <v>220.937241300597</v>
       </c>
       <c r="H36" t="n">
-        <v>119.1052045322123</v>
+        <v>119.1052045322124</v>
       </c>
       <c r="I36" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J36" t="n">
-        <v>179.810914411636</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="K36" t="n">
-        <v>232.4072068993109</v>
+        <v>337.1291119607203</v>
       </c>
       <c r="L36" t="n">
-        <v>716.583895940209</v>
+        <v>454.1738591511938</v>
       </c>
       <c r="M36" t="n">
-        <v>1333.574476552188</v>
+        <v>1071.164439763173</v>
       </c>
       <c r="N36" t="n">
-        <v>1512.215423660147</v>
+        <v>1720.191938518637</v>
       </c>
       <c r="O36" t="n">
-        <v>2039.533108956335</v>
+        <v>2247.509623814826</v>
       </c>
       <c r="P36" t="n">
-        <v>2445.748972877462</v>
+        <v>2653.725487735952</v>
       </c>
       <c r="Q36" t="n">
         <v>2664.59575085658</v>
@@ -7069,61 +7069,61 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>469.5242857757496</v>
+        <v>469.5242857757501</v>
       </c>
       <c r="C37" t="n">
-        <v>395.5620012563224</v>
+        <v>395.5620012563228</v>
       </c>
       <c r="D37" t="n">
-        <v>340.4192602524664</v>
+        <v>340.4192602524668</v>
       </c>
       <c r="E37" t="n">
-        <v>287.480065078553</v>
+        <v>287.4800650785533</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5640159891224</v>
+        <v>235.5640159891226</v>
       </c>
       <c r="G37" t="n">
-        <v>161.8515496797011</v>
+        <v>161.8515496797012</v>
       </c>
       <c r="H37" t="n">
-        <v>101.8638024461991</v>
+        <v>101.8638024461992</v>
       </c>
       <c r="I37" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J37" t="n">
-        <v>69.93465157859799</v>
+        <v>139.989520886802</v>
       </c>
       <c r="K37" t="n">
-        <v>255.0116051566072</v>
+        <v>325.0664744648111</v>
       </c>
       <c r="L37" t="n">
-        <v>521.341371253294</v>
+        <v>591.396240561498</v>
       </c>
       <c r="M37" t="n">
-        <v>807.4778683146719</v>
+        <v>805.0716048248718</v>
       </c>
       <c r="N37" t="n">
-        <v>1094.458622957515</v>
+        <v>1092.052359467715</v>
       </c>
       <c r="O37" t="n">
-        <v>1348.215093692345</v>
+        <v>1348.215093692346</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.320429455189</v>
+        <v>1557.32042945519</v>
       </c>
       <c r="Q37" t="n">
-        <v>1647.296483041252</v>
+        <v>1647.296483041253</v>
       </c>
       <c r="R37" t="n">
-        <v>1608.216924697274</v>
+        <v>1608.216924697275</v>
       </c>
       <c r="S37" t="n">
-        <v>1494.364726627558</v>
+        <v>1494.364726627559</v>
       </c>
       <c r="T37" t="n">
-        <v>1363.369662300733</v>
+        <v>1363.369662300734</v>
       </c>
       <c r="U37" t="n">
         <v>1169.187046847986</v>
@@ -7132,13 +7132,13 @@
         <v>1009.476457050579</v>
       </c>
       <c r="W37" t="n">
-        <v>815.0331854220976</v>
+        <v>815.0331854220983</v>
       </c>
       <c r="X37" t="n">
-        <v>682.01753293256</v>
+        <v>682.0175329325606</v>
       </c>
       <c r="Y37" t="n">
-        <v>556.1988521975096</v>
+        <v>556.1988521975102</v>
       </c>
     </row>
     <row r="38">
@@ -7157,46 +7157,46 @@
         <v>1255.670399430477</v>
       </c>
       <c r="E38" t="n">
-        <v>964.8560452407125</v>
+        <v>964.8560452407123</v>
       </c>
       <c r="F38" t="n">
-        <v>648.8440388595848</v>
+        <v>648.8440388595845</v>
       </c>
       <c r="G38" t="n">
-        <v>326.5528799444976</v>
+        <v>326.5528799444974</v>
       </c>
       <c r="H38" t="n">
-        <v>101.4881397966936</v>
+        <v>101.4881397966937</v>
       </c>
       <c r="I38" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J38" t="n">
-        <v>243.8279252593007</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K38" t="n">
-        <v>625.1936695733932</v>
+        <v>625.1936695733939</v>
       </c>
       <c r="L38" t="n">
-        <v>1150.58822560315</v>
+        <v>1150.588225603151</v>
       </c>
       <c r="M38" t="n">
-        <v>1751.797447352346</v>
+        <v>1751.797447352347</v>
       </c>
       <c r="N38" t="n">
-        <v>2348.102865308521</v>
+        <v>2348.102865308522</v>
       </c>
       <c r="O38" t="n">
-        <v>2865.989524423013</v>
+        <v>2865.989524423014</v>
       </c>
       <c r="P38" t="n">
-        <v>3270.319423338376</v>
+        <v>3270.319423338377</v>
       </c>
       <c r="Q38" t="n">
         <v>3496.7325789299</v>
       </c>
       <c r="R38" t="n">
-        <v>3496.732578929899</v>
+        <v>3496.7325789299</v>
       </c>
       <c r="S38" t="n">
         <v>3431.451773011834</v>
@@ -7245,25 +7245,25 @@
         <v>220.937241300597</v>
       </c>
       <c r="H39" t="n">
-        <v>119.1052045322123</v>
+        <v>119.1052045322124</v>
       </c>
       <c r="I39" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J39" t="n">
-        <v>179.810914411636</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="K39" t="n">
-        <v>236.569605851923</v>
+        <v>384.3515287087258</v>
       </c>
       <c r="L39" t="n">
-        <v>720.7462948928211</v>
+        <v>501.3962758991993</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.7368755048</v>
+        <v>1118.386856511178</v>
       </c>
       <c r="N39" t="n">
-        <v>1512.215423660147</v>
+        <v>1767.414355266643</v>
       </c>
       <c r="O39" t="n">
         <v>2039.533108956335</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>469.5242857757496</v>
+        <v>469.5242857757502</v>
       </c>
       <c r="C40" t="n">
-        <v>395.5620012563224</v>
+        <v>395.5620012563229</v>
       </c>
       <c r="D40" t="n">
-        <v>340.4192602524664</v>
+        <v>340.4192602524668</v>
       </c>
       <c r="E40" t="n">
-        <v>287.480065078553</v>
+        <v>287.4800650785534</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5640159891224</v>
+        <v>235.5640159891226</v>
       </c>
       <c r="G40" t="n">
-        <v>161.8515496797011</v>
+        <v>161.8515496797012</v>
       </c>
       <c r="H40" t="n">
-        <v>101.8638024461991</v>
+        <v>101.8638024461992</v>
       </c>
       <c r="I40" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J40" t="n">
         <v>139.989520886802</v>
       </c>
       <c r="K40" t="n">
-        <v>325.0664744648112</v>
+        <v>325.066474464811</v>
       </c>
       <c r="L40" t="n">
-        <v>591.3962405614981</v>
+        <v>591.3962405614977</v>
       </c>
       <c r="M40" t="n">
-        <v>877.5327376228759</v>
+        <v>877.5327376228755</v>
       </c>
       <c r="N40" t="n">
         <v>1164.513492265719</v>
@@ -7351,16 +7351,16 @@
         <v>1629.781562253194</v>
       </c>
       <c r="Q40" t="n">
-        <v>1647.296483041252</v>
+        <v>1647.296483041253</v>
       </c>
       <c r="R40" t="n">
-        <v>1608.216924697274</v>
+        <v>1608.216924697275</v>
       </c>
       <c r="S40" t="n">
-        <v>1494.364726627558</v>
+        <v>1494.364726627559</v>
       </c>
       <c r="T40" t="n">
-        <v>1363.369662300733</v>
+        <v>1363.369662300734</v>
       </c>
       <c r="U40" t="n">
         <v>1169.187046847986</v>
@@ -7369,13 +7369,13 @@
         <v>1009.476457050579</v>
       </c>
       <c r="W40" t="n">
-        <v>815.0331854220976</v>
+        <v>815.0331854220984</v>
       </c>
       <c r="X40" t="n">
-        <v>682.01753293256</v>
+        <v>682.0175329325607</v>
       </c>
       <c r="Y40" t="n">
-        <v>556.1988521975096</v>
+        <v>556.1988521975102</v>
       </c>
     </row>
     <row r="41">
@@ -7394,10 +7394,10 @@
         <v>1270.867274702701</v>
       </c>
       <c r="E41" t="n">
-        <v>977.0135454584913</v>
+        <v>977.0135454584916</v>
       </c>
       <c r="F41" t="n">
-        <v>657.9621640229188</v>
+        <v>657.9621640229191</v>
       </c>
       <c r="G41" t="n">
         <v>332.631630053387</v>
@@ -7415,19 +7415,19 @@
         <v>625.1936695733932</v>
       </c>
       <c r="L41" t="n">
-        <v>1150.588225603151</v>
+        <v>1150.58822560315</v>
       </c>
       <c r="M41" t="n">
         <v>1751.797447352347</v>
       </c>
       <c r="N41" t="n">
-        <v>2348.102865308522</v>
+        <v>2348.102865308521</v>
       </c>
       <c r="O41" t="n">
         <v>2865.989524423013</v>
       </c>
       <c r="P41" t="n">
-        <v>3270.319423338377</v>
+        <v>3270.319423338376</v>
       </c>
       <c r="Q41" t="n">
         <v>3496.7325789299</v>
@@ -7436,22 +7436,22 @@
         <v>3496.7325789299</v>
       </c>
       <c r="S41" t="n">
-        <v>3474.003023774058</v>
+        <v>3474.00302377406</v>
       </c>
       <c r="T41" t="n">
-        <v>3350.361661631929</v>
+        <v>3350.36166163193</v>
       </c>
       <c r="U41" t="n">
-        <v>3188.590299686315</v>
+        <v>3188.590299686316</v>
       </c>
       <c r="V41" t="n">
-        <v>2949.46193569678</v>
+        <v>2949.461935696781</v>
       </c>
       <c r="W41" t="n">
-        <v>2688.627803780701</v>
+        <v>2688.627803780702</v>
       </c>
       <c r="X41" t="n">
-        <v>2407.096568873656</v>
+        <v>2407.096568873657</v>
       </c>
       <c r="Y41" t="n">
         <v>2108.89176025188</v>
@@ -7488,25 +7488,25 @@
         <v>69.93465157859799</v>
       </c>
       <c r="J42" t="n">
-        <v>179.810914411636</v>
+        <v>69.93465157859799</v>
       </c>
       <c r="K42" t="n">
-        <v>232.4072068993109</v>
+        <v>337.1291119607203</v>
       </c>
       <c r="L42" t="n">
-        <v>716.583895940209</v>
+        <v>454.1738591511938</v>
       </c>
       <c r="M42" t="n">
-        <v>1333.574476552188</v>
+        <v>1071.164439763173</v>
       </c>
       <c r="N42" t="n">
-        <v>1512.215423660147</v>
+        <v>1720.191938518637</v>
       </c>
       <c r="O42" t="n">
-        <v>2039.533108956335</v>
+        <v>2247.509623814826</v>
       </c>
       <c r="P42" t="n">
-        <v>2445.748972877462</v>
+        <v>2653.725487735952</v>
       </c>
       <c r="Q42" t="n">
         <v>2664.59575085658</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>490.7999111568622</v>
+        <v>490.7999111568625</v>
       </c>
       <c r="C43" t="n">
-        <v>413.7982515829902</v>
+        <v>413.7982515829906</v>
       </c>
       <c r="D43" t="n">
-        <v>355.6161355246895</v>
+        <v>355.6161355246899</v>
       </c>
       <c r="E43" t="n">
-        <v>299.6375652963314</v>
+        <v>299.6375652963318</v>
       </c>
       <c r="F43" t="n">
-        <v>244.6821411524561</v>
+        <v>244.6821411524564</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9302997885905</v>
+        <v>167.9302997885904</v>
       </c>
       <c r="H43" t="n">
         <v>104.9031775006438</v>
@@ -7576,7 +7576,7 @@
         <v>582.4595660889142</v>
       </c>
       <c r="M43" t="n">
-        <v>865.6171716594304</v>
+        <v>865.6171716594308</v>
       </c>
       <c r="N43" t="n">
         <v>1149.619034811413</v>
@@ -7585,19 +7585,19 @@
         <v>1402.802877545182</v>
       </c>
       <c r="P43" t="n">
-        <v>1608.929321817165</v>
+        <v>1608.929321817166</v>
       </c>
       <c r="Q43" t="n">
-        <v>1695.926483912367</v>
+        <v>1695.926483912368</v>
       </c>
       <c r="R43" t="n">
         <v>1653.807550513945</v>
       </c>
       <c r="S43" t="n">
-        <v>1536.915977389783</v>
+        <v>1536.915977389784</v>
       </c>
       <c r="T43" t="n">
-        <v>1402.881538008513</v>
+        <v>1402.881538008514</v>
       </c>
       <c r="U43" t="n">
         <v>1205.659547501322</v>
@@ -7606,13 +7606,13 @@
         <v>1042.90958264947</v>
       </c>
       <c r="W43" t="n">
-        <v>845.4269359665442</v>
+        <v>845.4269359665448</v>
       </c>
       <c r="X43" t="n">
-        <v>709.3719084225619</v>
+        <v>709.3719084225623</v>
       </c>
       <c r="Y43" t="n">
-        <v>580.5138526330668</v>
+        <v>580.5138526330672</v>
       </c>
     </row>
     <row r="44">
@@ -7631,10 +7631,10 @@
         <v>1270.867274702701</v>
       </c>
       <c r="E44" t="n">
-        <v>977.0135454584913</v>
+        <v>977.0135454584916</v>
       </c>
       <c r="F44" t="n">
-        <v>657.9621640229188</v>
+        <v>657.9621640229191</v>
       </c>
       <c r="G44" t="n">
         <v>332.631630053387</v>
@@ -7643,16 +7643,16 @@
         <v>104.5275148511383</v>
       </c>
       <c r="I44" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859799</v>
       </c>
       <c r="J44" t="n">
-        <v>243.8279252593006</v>
+        <v>243.8279252593007</v>
       </c>
       <c r="K44" t="n">
-        <v>625.1936695733937</v>
+        <v>625.1936695733932</v>
       </c>
       <c r="L44" t="n">
-        <v>1150.588225603152</v>
+        <v>1150.588225603151</v>
       </c>
       <c r="M44" t="n">
         <v>1751.797447352347</v>
@@ -7661,34 +7661,34 @@
         <v>2348.102865308522</v>
       </c>
       <c r="O44" t="n">
-        <v>2865.989524423014</v>
+        <v>2865.989524423013</v>
       </c>
       <c r="P44" t="n">
         <v>3270.319423338377</v>
       </c>
       <c r="Q44" t="n">
-        <v>3496.732578929901</v>
+        <v>3496.7325789299</v>
       </c>
       <c r="R44" t="n">
-        <v>3496.732578929901</v>
+        <v>3496.7325789299</v>
       </c>
       <c r="S44" t="n">
-        <v>3474.003023774058</v>
+        <v>3474.00302377406</v>
       </c>
       <c r="T44" t="n">
-        <v>3350.361661631929</v>
+        <v>3350.36166163193</v>
       </c>
       <c r="U44" t="n">
-        <v>3188.590299686315</v>
+        <v>3188.590299686316</v>
       </c>
       <c r="V44" t="n">
-        <v>2949.46193569678</v>
+        <v>2949.461935696781</v>
       </c>
       <c r="W44" t="n">
-        <v>2688.627803780701</v>
+        <v>2688.627803780702</v>
       </c>
       <c r="X44" t="n">
-        <v>2407.096568873656</v>
+        <v>2407.096568873657</v>
       </c>
       <c r="Y44" t="n">
         <v>2108.89176025188</v>
@@ -7719,28 +7719,28 @@
         <v>220.937241300597</v>
       </c>
       <c r="H45" t="n">
-        <v>119.1052045322124</v>
+        <v>119.1052045322123</v>
       </c>
       <c r="I45" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859799</v>
       </c>
       <c r="J45" t="n">
-        <v>179.810914411636</v>
+        <v>69.93465157859799</v>
       </c>
       <c r="K45" t="n">
-        <v>494.2277915417638</v>
+        <v>384.3515287087258</v>
       </c>
       <c r="L45" t="n">
-        <v>978.404480582662</v>
+        <v>501.3962758991993</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.7368755048</v>
+        <v>1118.386856511178</v>
       </c>
       <c r="N45" t="n">
-        <v>1512.215423660147</v>
+        <v>1767.414355266643</v>
       </c>
       <c r="O45" t="n">
-        <v>2039.533108956335</v>
+        <v>2294.732040562831</v>
       </c>
       <c r="P45" t="n">
         <v>2445.748972877462</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>490.7999111568631</v>
+        <v>490.7999111568627</v>
       </c>
       <c r="C46" t="n">
-        <v>413.7982515829912</v>
+        <v>413.7982515829908</v>
       </c>
       <c r="D46" t="n">
-        <v>355.6161355246905</v>
+        <v>355.61613552469</v>
       </c>
       <c r="E46" t="n">
-        <v>299.6375652963324</v>
+        <v>299.637565296332</v>
       </c>
       <c r="F46" t="n">
-        <v>244.6821411524571</v>
+        <v>244.6821411524566</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9302997885911</v>
+        <v>167.9302997885906</v>
       </c>
       <c r="H46" t="n">
-        <v>104.9031775006444</v>
+        <v>104.9031775006439</v>
       </c>
       <c r="I46" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859799</v>
       </c>
       <c r="J46" t="n">
         <v>137.0106293959408</v>
       </c>
       <c r="K46" t="n">
-        <v>319.1086914830887</v>
+        <v>319.1086914830886</v>
       </c>
       <c r="L46" t="n">
-        <v>582.4595660889144</v>
+        <v>582.4595660889142</v>
       </c>
       <c r="M46" t="n">
-        <v>865.6171716594311</v>
+        <v>865.6171716594308</v>
       </c>
       <c r="N46" t="n">
         <v>1149.619034811413</v>
@@ -7837,19 +7837,19 @@
         <v>1402.881538008514</v>
       </c>
       <c r="U46" t="n">
-        <v>1205.659547501323</v>
+        <v>1205.659547501322</v>
       </c>
       <c r="V46" t="n">
-        <v>1042.909582649471</v>
+        <v>1042.90958264947</v>
       </c>
       <c r="W46" t="n">
-        <v>845.4269359665452</v>
+        <v>845.4269359665448</v>
       </c>
       <c r="X46" t="n">
-        <v>709.3719084225629</v>
+        <v>709.3719084225625</v>
       </c>
       <c r="Y46" t="n">
-        <v>580.5138526330678</v>
+        <v>580.5138526330674</v>
       </c>
     </row>
   </sheetData>
@@ -8064,16 +8064,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,16 +8541,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,13 +8775,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>119.9642150570743</v>
+        <v>205.4442701238973</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>25.09949661053258</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9018,13 +9018,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>159.7772337095901</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>15.1049112666331</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>6.688538420158629</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>205.4442701238978</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928334</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>325.1513070600958</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>164.3882494924854</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9717,25 @@
         <v>15.10491126663308</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>316.4303941976738</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>164.3882494924854</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>4.204443386476775</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>205.444270123898</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10197,16 +10197,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>205.444270123898</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>58.20197501383532</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10662,19 +10662,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>15.10491126663308</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>216.7658261560074</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>4.204443386476953</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.66121455045</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10899,22 +10899,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>15.10491126663308</v>
       </c>
       <c r="K39" t="n">
-        <v>4.204443386476775</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>136.0856206843094</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11136,19 +11136,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>15.10491126663308</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>216.7658261560074</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>4.204443386476953</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,25 +11373,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>15.10491126663308</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>205.4442701238978</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>60.68607004751701</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>45.13471955850304</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.24693463981491</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>10.88778491868877</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>45.13471955850304</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.24693463981491</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>10.88778491868811</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>45.13471955850355</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.24693463981494</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>10.88778491868857</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>34.24693463981497</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,10 +24731,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>10.88778491868831</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>45.1347195585022</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>45.13471955850243</v>
+        <v>45.13471955850379</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>45.13471955850152</v>
+        <v>45.13471955850379</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>658124.6072349306</v>
+        <v>658124.6072349305</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>658124.6072349306</v>
+        <v>658124.6072349305</v>
       </c>
     </row>
   </sheetData>
@@ -26314,28 +26314,28 @@
         <v>800515.7256176765</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
-        <v>797012.8200327397</v>
+        <v>797012.8200327399</v>
       </c>
       <c r="F2" t="n">
-        <v>797012.82003274</v>
+        <v>797012.8200327399</v>
       </c>
       <c r="G2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.725617676</v>
       </c>
       <c r="H2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176758</v>
       </c>
       <c r="I2" t="n">
         <v>800515.7256176758</v>
       </c>
       <c r="J2" t="n">
-        <v>797012.8200327401</v>
+        <v>797012.8200327402</v>
       </c>
       <c r="K2" t="n">
         <v>797012.8200327401</v>
@@ -26344,13 +26344,13 @@
         <v>800515.7256176759</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176758</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176758</v>
       </c>
       <c r="O2" t="n">
-        <v>797012.8200327401</v>
+        <v>797012.82003274</v>
       </c>
       <c r="P2" t="n">
         <v>797012.8200327401</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>703589.2920394258</v>
+        <v>703589.292039426</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2407.18504312016</v>
+        <v>2407.185043120194</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>133464.9000523818</v>
+        <v>133464.9000523817</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4814.370086240398</v>
+        <v>4814.370086240342</v>
       </c>
       <c r="M3" t="n">
-        <v>157788.2115544435</v>
+        <v>157788.2115544436</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>67997.7724101553</v>
+        <v>67997.77241015539</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26476,19 +26476,19 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>72787.96136398583</v>
+        <v>72787.96136398584</v>
       </c>
       <c r="F5" t="n">
         <v>72787.96136398584</v>
       </c>
       <c r="G5" t="n">
+        <v>73040.92341322344</v>
+      </c>
+      <c r="H5" t="n">
         <v>73040.92341322341</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>73040.92341322343</v>
-      </c>
-      <c r="I5" t="n">
-        <v>73040.92341322344</v>
       </c>
       <c r="J5" t="n">
         <v>72787.96136398584</v>
@@ -26497,7 +26497,7 @@
         <v>72787.96136398584</v>
       </c>
       <c r="L5" t="n">
-        <v>73040.92341322344</v>
+        <v>73040.92341322343</v>
       </c>
       <c r="M5" t="n">
         <v>73040.92341322343</v>
@@ -26509,7 +26509,7 @@
         <v>72787.96136398584</v>
       </c>
       <c r="P5" t="n">
-        <v>72787.96136398586</v>
+        <v>72787.96136398584</v>
       </c>
     </row>
     <row r="6">
@@ -26522,19 +26522,19 @@
         <v>367237.2294752885</v>
       </c>
       <c r="C6" t="n">
-        <v>448006.6610068363</v>
+        <v>448006.6610068362</v>
       </c>
       <c r="D6" t="n">
         <v>448006.661006836</v>
       </c>
       <c r="E6" t="n">
-        <v>-97054.7968707112</v>
+        <v>-97063.77867990332</v>
       </c>
       <c r="F6" t="n">
-        <v>606534.495168715</v>
+        <v>606525.5133595227</v>
       </c>
       <c r="G6" t="n">
-        <v>605341.8040004708</v>
+        <v>605341.8040004711</v>
       </c>
       <c r="H6" t="n">
         <v>607748.9890435913</v>
@@ -26543,25 +26543,25 @@
         <v>607748.9890435911</v>
       </c>
       <c r="J6" t="n">
-        <v>473069.5951163333</v>
+        <v>473060.6133071413</v>
       </c>
       <c r="K6" t="n">
-        <v>606534.495168715</v>
+        <v>606525.5133595229</v>
       </c>
       <c r="L6" t="n">
         <v>602934.6189573508</v>
       </c>
       <c r="M6" t="n">
-        <v>449960.7774891483</v>
+        <v>449960.7774891474</v>
       </c>
       <c r="N6" t="n">
-        <v>607748.9890435917</v>
+        <v>607748.9890435911</v>
       </c>
       <c r="O6" t="n">
-        <v>538536.7227585597</v>
+        <v>538527.7409493674</v>
       </c>
       <c r="P6" t="n">
-        <v>606534.495168715</v>
+        <v>606525.5133595229</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="F2" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="G2" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="H2" t="n">
         <v>94.02415942439488</v>
       </c>
       <c r="I2" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="J2" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="K2" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="L2" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="M2" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="N2" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="O2" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="P2" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
     </row>
     <row r="3">
@@ -26744,13 +26744,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>549.8197777449311</v>
+        <v>549.8197777449313</v>
       </c>
       <c r="F3" t="n">
-        <v>549.8197777449311</v>
+        <v>549.8197777449313</v>
       </c>
       <c r="G3" t="n">
-        <v>549.819777744931</v>
+        <v>549.8197777449312</v>
       </c>
       <c r="H3" t="n">
         <v>549.819777744931</v>
@@ -26777,7 +26777,7 @@
         <v>549.8197777449311</v>
       </c>
       <c r="P3" t="n">
-        <v>549.8197777449312</v>
+        <v>549.8197777449311</v>
       </c>
     </row>
     <row r="4">
@@ -26796,22 +26796,22 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>874.1831447324747</v>
+        <v>874.1831447324752</v>
       </c>
       <c r="F4" t="n">
+        <v>874.1831447324752</v>
+      </c>
+      <c r="G4" t="n">
+        <v>874.1831447324751</v>
+      </c>
+      <c r="H4" t="n">
         <v>874.1831447324749</v>
-      </c>
-      <c r="G4" t="n">
-        <v>874.1831447324749</v>
-      </c>
-      <c r="H4" t="n">
-        <v>874.1831447324751</v>
       </c>
       <c r="I4" t="n">
         <v>874.1831447324751</v>
       </c>
       <c r="J4" t="n">
-        <v>874.1831447324751</v>
+        <v>874.1831447324749</v>
       </c>
       <c r="K4" t="n">
         <v>874.1831447324751</v>
@@ -26820,16 +26820,16 @@
         <v>874.1831447324751</v>
       </c>
       <c r="M4" t="n">
-        <v>874.1831447324749</v>
+        <v>874.1831447324751</v>
       </c>
       <c r="N4" t="n">
-        <v>874.1831447324749</v>
+        <v>874.1831447324751</v>
       </c>
       <c r="O4" t="n">
         <v>874.1831447324749</v>
       </c>
       <c r="P4" t="n">
-        <v>874.1831447324752</v>
+        <v>874.1831447324749</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.0089813039002</v>
+        <v>3.008981303900242</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.017962607800499</v>
+        <v>6.017962607800428</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>84.99721551269413</v>
+        <v>84.99721551269424</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>549.8197777449311</v>
+        <v>549.8197777449313</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>633.1688558548158</v>
+        <v>633.1688558548161</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>633.1688558548158</v>
+        <v>633.1688558548162</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.0089813039002</v>
+        <v>3.008981303900242</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>633.1688558548158</v>
+        <v>633.1688558548161</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>164.6545692411009</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>334.4055473171627</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>137.7060311583433</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>172.8278095414191</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>37.52545250819722</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27619,13 +27619,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>156.2798698447357</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>318.0277841748236</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27698,10 +27698,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27746,10 +27746,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>150.5118310698346</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>69.92294949524563</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C7" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27853,13 +27853,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>213.7637562548236</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>333.5151654886528</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>145.2236497783945</v>
@@ -27935,10 +27935,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>121.2058486888432</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>82.43874084280175</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="C11" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="D11" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="E11" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="F11" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="G11" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="H11" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="I11" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>11.02442803654654</v>
+        <v>11.02442803654648</v>
       </c>
       <c r="S11" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="T11" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="U11" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="V11" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="W11" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="X11" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="C13" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="D13" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="E13" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="F13" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="G13" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="H13" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="I13" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="J13" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="K13" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="L13" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="M13" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="N13" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="O13" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="P13" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="R13" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="S13" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="T13" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="U13" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="V13" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="W13" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="X13" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="C14" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="D14" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="E14" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="F14" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="G14" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="H14" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="I14" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>11.02442803654654</v>
+        <v>11.02442803654648</v>
       </c>
       <c r="S14" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="T14" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="U14" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="V14" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="W14" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="X14" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="C16" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="D16" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="E16" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="F16" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="G16" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="H16" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="I16" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="J16" t="n">
-        <v>91.01517812049413</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="K16" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="L16" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="M16" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049491</v>
       </c>
       <c r="N16" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="O16" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="P16" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="R16" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="S16" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="T16" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="U16" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="V16" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="W16" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="X16" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.01517812049468</v>
+        <v>91.01517812049462</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="C17" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="D17" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="E17" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="F17" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="G17" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="H17" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="I17" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>11.02442803654657</v>
+        <v>11.02442803654651</v>
       </c>
       <c r="S17" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="T17" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="U17" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="V17" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="W17" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="X17" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="Y17" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="C19" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="D19" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="E19" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="F19" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="G19" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="H19" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="I19" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="J19" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="K19" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="L19" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="M19" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="N19" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="O19" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="P19" t="n">
-        <v>20.83109599206684</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="Q19" t="n">
-        <v>94.02415942439488</v>
+        <v>20.8310959920667</v>
       </c>
       <c r="R19" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="S19" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="T19" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="U19" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="V19" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="W19" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="X19" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439487</v>
       </c>
     </row>
     <row r="20">
@@ -28980,10 +28980,10 @@
         <v>94.02415942439488</v>
       </c>
       <c r="J22" t="n">
-        <v>23.2616651736838</v>
+        <v>94.02415942439488</v>
       </c>
       <c r="K22" t="n">
-        <v>91.59359024277791</v>
+        <v>94.02415942439488</v>
       </c>
       <c r="L22" t="n">
         <v>94.02415942439488</v>
@@ -29001,7 +29001,7 @@
         <v>94.02415942439488</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.02415942439488</v>
+        <v>20.83109599206697</v>
       </c>
       <c r="R22" t="n">
         <v>94.02415942439488</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="C23" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="D23" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="E23" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="F23" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="G23" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="H23" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="I23" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>11.02442803654654</v>
       </c>
       <c r="S23" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="T23" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="U23" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="V23" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="W23" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="X23" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="Y23" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="C25" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="D25" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="E25" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="F25" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="G25" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="H25" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="I25" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="J25" t="n">
-        <v>94.02415942439488</v>
+        <v>23.26166517368378</v>
       </c>
       <c r="K25" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="L25" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="M25" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="N25" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="O25" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="P25" t="n">
-        <v>20.83109599206659</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="Q25" t="n">
-        <v>94.02415942439488</v>
+        <v>91.59359024277869</v>
       </c>
       <c r="R25" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="S25" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="T25" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="U25" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="V25" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="W25" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="X25" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.02415942439488</v>
+        <v>94.02415942439485</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="C26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="D26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="E26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="F26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="G26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="H26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="I26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>11.02442803654654</v>
       </c>
       <c r="S26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="T26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="U26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="V26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="W26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="X26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Y26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="C28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="D28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="E28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="F28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="G28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="H28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="I28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="J28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="K28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="L28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="M28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="N28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="O28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="P28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Q28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="R28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="S28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="T28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="U28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="V28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="W28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="X28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="C29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="D29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="E29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="F29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="G29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="H29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="I29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29545,7 +29545,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>11.02442803654654</v>
       </c>
       <c r="S29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="T29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="U29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="V29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="W29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="X29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="Y29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="C31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="D31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="E31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="F31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="G31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="H31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="I31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="J31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="K31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="L31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="M31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="N31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="O31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="P31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="Q31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="R31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="S31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="T31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="U31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="V31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="W31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="X31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="C32" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="D32" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="E32" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="F32" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="G32" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="H32" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="I32" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>11.02442803654654</v>
       </c>
       <c r="S32" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="T32" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="U32" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="V32" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="W32" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="X32" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="Y32" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="C34" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="D34" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="E34" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="F34" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="G34" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="H34" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="I34" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="J34" t="n">
-        <v>94.02415942439492</v>
+        <v>23.26166517368378</v>
       </c>
       <c r="K34" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="L34" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="M34" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="N34" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="O34" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="P34" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.83109599206627</v>
+        <v>91.59359024277869</v>
       </c>
       <c r="R34" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="S34" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="T34" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="U34" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="V34" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="W34" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="X34" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="Y34" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="C35" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="D35" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="E35" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="F35" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="G35" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="H35" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="I35" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>11.02442803654654</v>
       </c>
       <c r="S35" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="T35" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="U35" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="V35" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="W35" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="X35" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="Y35" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="C37" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="D37" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="E37" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="F37" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="G37" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="H37" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="I37" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="J37" t="n">
-        <v>23.26166517368378</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="K37" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="L37" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="M37" t="n">
-        <v>94.02415942439492</v>
+        <v>20.83109599206762</v>
       </c>
       <c r="N37" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="O37" t="n">
-        <v>91.59359024277722</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="P37" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="Q37" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="R37" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="S37" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="T37" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="U37" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="V37" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="W37" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="X37" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
       <c r="Y37" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439485</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="C38" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="D38" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="E38" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="F38" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="G38" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="H38" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="I38" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>11.02442803654654</v>
       </c>
       <c r="S38" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="T38" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="U38" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="V38" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="W38" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="X38" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="Y38" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="C40" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="D40" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="E40" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="F40" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="G40" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="H40" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="I40" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="J40" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="K40" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="L40" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="M40" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="N40" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="O40" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="P40" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.83109599206627</v>
+        <v>20.83109599206787</v>
       </c>
       <c r="R40" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="S40" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="T40" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="U40" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="V40" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="W40" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="X40" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="Y40" t="n">
-        <v>94.02415942439492</v>
+        <v>94.02415942439484</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="C41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="D41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="E41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="F41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="G41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="H41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="I41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>11.02442803654654</v>
       </c>
       <c r="S41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="T41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="U41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="V41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="W41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="X41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Y41" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="C43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="D43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="E43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="F43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="G43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="H43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="I43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="J43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="K43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="L43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="M43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="N43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="O43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="P43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Q43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="R43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="S43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="T43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="U43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="V43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="W43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="X43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Y43" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="C44" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="D44" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="E44" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="F44" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="G44" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="H44" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="I44" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>11.02442803654651</v>
+        <v>11.02442803654654</v>
       </c>
       <c r="S44" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="T44" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="U44" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="V44" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="W44" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="X44" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Y44" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="C46" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="D46" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="E46" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="F46" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="G46" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="H46" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="I46" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="J46" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="K46" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="L46" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="M46" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="N46" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="O46" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="P46" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Q46" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="R46" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="S46" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="T46" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="U46" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="V46" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="W46" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="X46" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Y46" t="n">
-        <v>91.01517812049467</v>
+        <v>91.01517812049465</v>
       </c>
     </row>
   </sheetData>
@@ -31753,46 +31753,46 @@
         <v>2.210330764803742</v>
       </c>
       <c r="H11" t="n">
-        <v>22.63654994504632</v>
+        <v>22.63654994504633</v>
       </c>
       <c r="I11" t="n">
-        <v>85.21377681009632</v>
+        <v>85.21377681009636</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5990607492617</v>
+        <v>187.5990607492618</v>
       </c>
       <c r="K11" t="n">
-        <v>281.1623620234042</v>
+        <v>281.1623620234043</v>
       </c>
       <c r="L11" t="n">
-        <v>348.8067721667667</v>
+        <v>348.8067721667669</v>
       </c>
       <c r="M11" t="n">
-        <v>388.1147419053453</v>
+        <v>388.1147419053454</v>
       </c>
       <c r="N11" t="n">
-        <v>394.3948441908439</v>
+        <v>394.3948441908441</v>
       </c>
       <c r="O11" t="n">
-        <v>372.4158676483267</v>
+        <v>372.4158676483269</v>
       </c>
       <c r="P11" t="n">
-        <v>317.8483268922343</v>
+        <v>317.8483268922344</v>
       </c>
       <c r="Q11" t="n">
-        <v>238.6908563777002</v>
+        <v>238.6908563777003</v>
       </c>
       <c r="R11" t="n">
-        <v>138.8446899046031</v>
+        <v>138.8446899046032</v>
       </c>
       <c r="S11" t="n">
-        <v>50.36791230296531</v>
+        <v>50.36791230296533</v>
       </c>
       <c r="T11" t="n">
-        <v>9.675722922928383</v>
+        <v>9.675722922928387</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1768264611842993</v>
+        <v>0.1768264611842994</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31835,43 @@
         <v>11.42172783579565</v>
       </c>
       <c r="I12" t="n">
-        <v>40.71778542733689</v>
+        <v>40.71778542733691</v>
       </c>
       <c r="J12" t="n">
-        <v>111.7327154000336</v>
+        <v>111.7327154000337</v>
       </c>
       <c r="K12" t="n">
         <v>190.9690071437277</v>
       </c>
       <c r="L12" t="n">
-        <v>256.7813971439888</v>
+        <v>256.781397143989</v>
       </c>
       <c r="M12" t="n">
-        <v>299.6517788709874</v>
+        <v>299.6517788709875</v>
       </c>
       <c r="N12" t="n">
-        <v>307.5826698160063</v>
+        <v>307.5826698160064</v>
       </c>
       <c r="O12" t="n">
-        <v>281.3780517295215</v>
+        <v>281.3780517295216</v>
       </c>
       <c r="P12" t="n">
-        <v>225.8306932401775</v>
+        <v>225.8306932401776</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.9618378442309</v>
+        <v>150.961837844231</v>
       </c>
       <c r="R12" t="n">
-        <v>73.42687522412498</v>
+        <v>73.42687522412501</v>
       </c>
       <c r="S12" t="n">
-        <v>21.96685621462058</v>
+        <v>21.96685621462059</v>
       </c>
       <c r="T12" t="n">
-        <v>4.766833733467845</v>
+        <v>4.766833733467847</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07780468552994312</v>
+        <v>0.07780468552994314</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9914782877367609</v>
+        <v>0.9914782877367613</v>
       </c>
       <c r="H13" t="n">
-        <v>8.815143321877754</v>
+        <v>8.815143321877757</v>
       </c>
       <c r="I13" t="n">
-        <v>29.81645614393824</v>
+        <v>29.81645614393825</v>
       </c>
       <c r="J13" t="n">
-        <v>70.09751494298899</v>
+        <v>70.09751494298902</v>
       </c>
       <c r="K13" t="n">
-        <v>115.1917501570527</v>
+        <v>115.1917501570528</v>
       </c>
       <c r="L13" t="n">
-        <v>147.4057810695181</v>
+        <v>147.4057810695182</v>
       </c>
       <c r="M13" t="n">
         <v>155.418728322227</v>
       </c>
       <c r="N13" t="n">
-        <v>151.7232183406628</v>
+        <v>151.7232183406629</v>
       </c>
       <c r="O13" t="n">
-        <v>140.1409492521015</v>
+        <v>140.1409492521016</v>
       </c>
       <c r="P13" t="n">
         <v>119.9147921822715</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.02278643948459</v>
+        <v>83.02278643948463</v>
       </c>
       <c r="R13" t="n">
-        <v>44.58046919223653</v>
+        <v>44.58046919223655</v>
       </c>
       <c r="S13" t="n">
-        <v>17.27876252355791</v>
+        <v>17.27876252355792</v>
       </c>
       <c r="T13" t="n">
-        <v>4.236316320329796</v>
+        <v>4.236316320329797</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05408063387655066</v>
+        <v>0.05408063387655068</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,46 +31990,46 @@
         <v>2.210330764803742</v>
       </c>
       <c r="H14" t="n">
-        <v>22.63654994504632</v>
+        <v>22.63654994504633</v>
       </c>
       <c r="I14" t="n">
-        <v>85.21377681009632</v>
+        <v>85.21377681009636</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5990607492617</v>
+        <v>187.5990607492618</v>
       </c>
       <c r="K14" t="n">
-        <v>281.1623620234042</v>
+        <v>281.1623620234043</v>
       </c>
       <c r="L14" t="n">
-        <v>348.8067721667667</v>
+        <v>348.8067721667669</v>
       </c>
       <c r="M14" t="n">
-        <v>388.1147419053453</v>
+        <v>388.1147419053454</v>
       </c>
       <c r="N14" t="n">
-        <v>394.3948441908439</v>
+        <v>394.3948441908441</v>
       </c>
       <c r="O14" t="n">
-        <v>372.4158676483267</v>
+        <v>372.4158676483269</v>
       </c>
       <c r="P14" t="n">
-        <v>317.8483268922343</v>
+        <v>317.8483268922344</v>
       </c>
       <c r="Q14" t="n">
-        <v>238.6908563777002</v>
+        <v>238.6908563777003</v>
       </c>
       <c r="R14" t="n">
-        <v>138.8446899046031</v>
+        <v>138.8446899046032</v>
       </c>
       <c r="S14" t="n">
-        <v>50.36791230296531</v>
+        <v>50.36791230296533</v>
       </c>
       <c r="T14" t="n">
-        <v>9.675722922928383</v>
+        <v>9.675722922928387</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1768264611842993</v>
+        <v>0.1768264611842994</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,43 +32072,43 @@
         <v>11.42172783579565</v>
       </c>
       <c r="I15" t="n">
-        <v>40.71778542733689</v>
+        <v>40.71778542733691</v>
       </c>
       <c r="J15" t="n">
-        <v>111.7327154000336</v>
+        <v>111.7327154000337</v>
       </c>
       <c r="K15" t="n">
         <v>190.9690071437277</v>
       </c>
       <c r="L15" t="n">
-        <v>256.7813971439888</v>
+        <v>256.781397143989</v>
       </c>
       <c r="M15" t="n">
-        <v>299.6517788709874</v>
+        <v>299.6517788709875</v>
       </c>
       <c r="N15" t="n">
-        <v>307.5826698160063</v>
+        <v>307.5826698160064</v>
       </c>
       <c r="O15" t="n">
-        <v>281.3780517295215</v>
+        <v>281.3780517295216</v>
       </c>
       <c r="P15" t="n">
-        <v>225.8306932401775</v>
+        <v>225.8306932401776</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.9618378442309</v>
+        <v>150.961837844231</v>
       </c>
       <c r="R15" t="n">
-        <v>73.42687522412498</v>
+        <v>73.42687522412501</v>
       </c>
       <c r="S15" t="n">
-        <v>21.96685621462058</v>
+        <v>21.96685621462059</v>
       </c>
       <c r="T15" t="n">
-        <v>4.766833733467845</v>
+        <v>4.766833733467847</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07780468552994312</v>
+        <v>0.07780468552994314</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9914782877367609</v>
+        <v>0.9914782877367613</v>
       </c>
       <c r="H16" t="n">
-        <v>8.815143321877754</v>
+        <v>8.815143321877757</v>
       </c>
       <c r="I16" t="n">
-        <v>29.81645614393824</v>
+        <v>29.81645614393825</v>
       </c>
       <c r="J16" t="n">
-        <v>70.09751494298899</v>
+        <v>70.09751494298902</v>
       </c>
       <c r="K16" t="n">
-        <v>115.1917501570527</v>
+        <v>115.1917501570528</v>
       </c>
       <c r="L16" t="n">
-        <v>147.4057810695181</v>
+        <v>147.4057810695182</v>
       </c>
       <c r="M16" t="n">
         <v>155.418728322227</v>
       </c>
       <c r="N16" t="n">
-        <v>151.7232183406628</v>
+        <v>151.7232183406629</v>
       </c>
       <c r="O16" t="n">
-        <v>140.1409492521015</v>
+        <v>140.1409492521016</v>
       </c>
       <c r="P16" t="n">
         <v>119.9147921822715</v>
       </c>
       <c r="Q16" t="n">
-        <v>83.02278643948459</v>
+        <v>83.02278643948463</v>
       </c>
       <c r="R16" t="n">
-        <v>44.58046919223653</v>
+        <v>44.58046919223655</v>
       </c>
       <c r="S16" t="n">
-        <v>17.27876252355791</v>
+        <v>17.27876252355792</v>
       </c>
       <c r="T16" t="n">
-        <v>4.236316320329796</v>
+        <v>4.236316320329797</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05408063387655066</v>
+        <v>0.05408063387655068</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,46 +32224,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.210330764803741</v>
+        <v>2.210330764803742</v>
       </c>
       <c r="H17" t="n">
-        <v>22.63654994504632</v>
+        <v>22.63654994504633</v>
       </c>
       <c r="I17" t="n">
-        <v>85.21377681009631</v>
+        <v>85.21377681009635</v>
       </c>
       <c r="J17" t="n">
-        <v>187.5990607492617</v>
+        <v>187.5990607492618</v>
       </c>
       <c r="K17" t="n">
-        <v>281.1623620234041</v>
+        <v>281.1623620234042</v>
       </c>
       <c r="L17" t="n">
-        <v>348.8067721667667</v>
+        <v>348.8067721667668</v>
       </c>
       <c r="M17" t="n">
-        <v>388.1147419053452</v>
+        <v>388.1147419053453</v>
       </c>
       <c r="N17" t="n">
-        <v>394.3948441908439</v>
+        <v>394.394844190844</v>
       </c>
       <c r="O17" t="n">
-        <v>372.4158676483266</v>
+        <v>372.4158676483268</v>
       </c>
       <c r="P17" t="n">
-        <v>317.8483268922342</v>
+        <v>317.8483268922344</v>
       </c>
       <c r="Q17" t="n">
         <v>238.6908563777002</v>
       </c>
       <c r="R17" t="n">
-        <v>138.8446899046031</v>
+        <v>138.8446899046032</v>
       </c>
       <c r="S17" t="n">
-        <v>50.3679123029653</v>
+        <v>50.36791230296532</v>
       </c>
       <c r="T17" t="n">
-        <v>9.675722922928381</v>
+        <v>9.675722922928385</v>
       </c>
       <c r="U17" t="n">
         <v>0.1768264611842993</v>
@@ -32306,46 +32306,46 @@
         <v>1.182631220055135</v>
       </c>
       <c r="H18" t="n">
-        <v>11.42172783579564</v>
+        <v>11.42172783579565</v>
       </c>
       <c r="I18" t="n">
-        <v>40.71778542733688</v>
+        <v>40.71778542733689</v>
       </c>
       <c r="J18" t="n">
         <v>111.7327154000336</v>
       </c>
       <c r="K18" t="n">
-        <v>190.9690071437276</v>
+        <v>190.9690071437277</v>
       </c>
       <c r="L18" t="n">
-        <v>256.7813971439888</v>
+        <v>256.7813971439889</v>
       </c>
       <c r="M18" t="n">
-        <v>299.6517788709874</v>
+        <v>299.6517788709875</v>
       </c>
       <c r="N18" t="n">
-        <v>307.5826698160063</v>
+        <v>307.5826698160064</v>
       </c>
       <c r="O18" t="n">
-        <v>281.3780517295214</v>
+        <v>281.3780517295215</v>
       </c>
       <c r="P18" t="n">
         <v>225.8306932401775</v>
       </c>
       <c r="Q18" t="n">
-        <v>150.9618378442309</v>
+        <v>150.961837844231</v>
       </c>
       <c r="R18" t="n">
-        <v>73.42687522412497</v>
+        <v>73.426875224125</v>
       </c>
       <c r="S18" t="n">
-        <v>21.96685621462058</v>
+        <v>21.96685621462059</v>
       </c>
       <c r="T18" t="n">
-        <v>4.766833733467844</v>
+        <v>4.766833733467846</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0778046855299431</v>
+        <v>0.07780468552994313</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,25 +32382,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9914782877367607</v>
+        <v>0.9914782877367612</v>
       </c>
       <c r="H19" t="n">
-        <v>8.815143321877752</v>
+        <v>8.815143321877756</v>
       </c>
       <c r="I19" t="n">
-        <v>29.81645614393823</v>
+        <v>29.81645614393824</v>
       </c>
       <c r="J19" t="n">
-        <v>70.09751494298898</v>
+        <v>70.09751494298901</v>
       </c>
       <c r="K19" t="n">
-        <v>115.1917501570527</v>
+        <v>115.1917501570528</v>
       </c>
       <c r="L19" t="n">
         <v>147.4057810695181</v>
       </c>
       <c r="M19" t="n">
-        <v>155.4187283222269</v>
+        <v>155.418728322227</v>
       </c>
       <c r="N19" t="n">
         <v>151.7232183406628</v>
@@ -32412,19 +32412,19 @@
         <v>119.9147921822715</v>
       </c>
       <c r="Q19" t="n">
-        <v>83.02278643948458</v>
+        <v>83.02278643948462</v>
       </c>
       <c r="R19" t="n">
-        <v>44.58046919223652</v>
+        <v>44.58046919223654</v>
       </c>
       <c r="S19" t="n">
-        <v>17.2787625235579</v>
+        <v>17.27876252355791</v>
       </c>
       <c r="T19" t="n">
-        <v>4.236316320329795</v>
+        <v>4.236316320329797</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05408063387655065</v>
+        <v>0.05408063387655067</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34360,43 +34360,43 @@
         <v>2.210330764803742</v>
       </c>
       <c r="H44" t="n">
-        <v>22.63654994504633</v>
+        <v>22.63654994504632</v>
       </c>
       <c r="I44" t="n">
-        <v>85.21377681009635</v>
+        <v>85.21377681009632</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5990607492618</v>
+        <v>187.5990607492617</v>
       </c>
       <c r="K44" t="n">
         <v>281.1623620234042</v>
       </c>
       <c r="L44" t="n">
-        <v>348.8067721667668</v>
+        <v>348.8067721667667</v>
       </c>
       <c r="M44" t="n">
         <v>388.1147419053453</v>
       </c>
       <c r="N44" t="n">
-        <v>394.394844190844</v>
+        <v>394.3948441908439</v>
       </c>
       <c r="O44" t="n">
-        <v>372.4158676483268</v>
+        <v>372.4158676483267</v>
       </c>
       <c r="P44" t="n">
-        <v>317.8483268922344</v>
+        <v>317.8483268922343</v>
       </c>
       <c r="Q44" t="n">
         <v>238.6908563777002</v>
       </c>
       <c r="R44" t="n">
-        <v>138.8446899046032</v>
+        <v>138.8446899046031</v>
       </c>
       <c r="S44" t="n">
-        <v>50.36791230296532</v>
+        <v>50.36791230296531</v>
       </c>
       <c r="T44" t="n">
-        <v>9.675722922928385</v>
+        <v>9.675722922928383</v>
       </c>
       <c r="U44" t="n">
         <v>0.1768264611842993</v>
@@ -34451,13 +34451,13 @@
         <v>190.9690071437277</v>
       </c>
       <c r="L45" t="n">
-        <v>256.7813971439889</v>
+        <v>256.7813971439888</v>
       </c>
       <c r="M45" t="n">
-        <v>299.6517788709875</v>
+        <v>299.6517788709874</v>
       </c>
       <c r="N45" t="n">
-        <v>307.5826698160064</v>
+        <v>307.5826698160063</v>
       </c>
       <c r="O45" t="n">
         <v>281.3780517295215</v>
@@ -34466,19 +34466,19 @@
         <v>225.8306932401775</v>
       </c>
       <c r="Q45" t="n">
-        <v>150.961837844231</v>
+        <v>150.9618378442309</v>
       </c>
       <c r="R45" t="n">
-        <v>73.426875224125</v>
+        <v>73.42687522412498</v>
       </c>
       <c r="S45" t="n">
-        <v>21.96685621462059</v>
+        <v>21.96685621462058</v>
       </c>
       <c r="T45" t="n">
-        <v>4.766833733467846</v>
+        <v>4.766833733467845</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07780468552994313</v>
+        <v>0.07780468552994312</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9914782877367612</v>
+        <v>0.9914782877367609</v>
       </c>
       <c r="H46" t="n">
-        <v>8.815143321877756</v>
+        <v>8.815143321877754</v>
       </c>
       <c r="I46" t="n">
         <v>29.81645614393824</v>
       </c>
       <c r="J46" t="n">
-        <v>70.09751494298901</v>
+        <v>70.09751494298899</v>
       </c>
       <c r="K46" t="n">
-        <v>115.1917501570528</v>
+        <v>115.1917501570527</v>
       </c>
       <c r="L46" t="n">
         <v>147.4057810695181</v>
@@ -34545,19 +34545,19 @@
         <v>119.9147921822715</v>
       </c>
       <c r="Q46" t="n">
-        <v>83.02278643948462</v>
+        <v>83.02278643948459</v>
       </c>
       <c r="R46" t="n">
-        <v>44.58046919223654</v>
+        <v>44.58046919223653</v>
       </c>
       <c r="S46" t="n">
         <v>17.27876252355791</v>
       </c>
       <c r="T46" t="n">
-        <v>4.236316320329797</v>
+        <v>4.236316320329796</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05408063387655067</v>
+        <v>0.05408063387655066</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34705,7 +34705,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34784,16 +34784,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35261,16 +35261,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>175.6497713946492</v>
+        <v>175.6497713946493</v>
       </c>
       <c r="K11" t="n">
-        <v>385.2179235495884</v>
+        <v>385.2179235495885</v>
       </c>
       <c r="L11" t="n">
-        <v>530.70157174723</v>
+        <v>530.7015717472301</v>
       </c>
       <c r="M11" t="n">
-        <v>607.282042170905</v>
+        <v>607.2820421709051</v>
       </c>
       <c r="N11" t="n">
-        <v>602.3287050062372</v>
+        <v>602.3287050062373</v>
       </c>
       <c r="O11" t="n">
-        <v>523.1178374893854</v>
+        <v>523.1178374893855</v>
       </c>
       <c r="P11" t="n">
-        <v>408.4140393084474</v>
+        <v>408.4140393084475</v>
       </c>
       <c r="Q11" t="n">
-        <v>228.7001571631554</v>
+        <v>228.7001571631555</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>110.9861240737758</v>
       </c>
       <c r="K12" t="n">
-        <v>317.5928051819473</v>
+        <v>317.5928051819474</v>
       </c>
       <c r="L12" t="n">
-        <v>489.0673626675738</v>
+        <v>489.0673626675739</v>
       </c>
       <c r="M12" t="n">
-        <v>277.4819600060434</v>
+        <v>362.9620150728665</v>
       </c>
       <c r="N12" t="n">
-        <v>655.5833320762265</v>
+        <v>176.2409577326731</v>
       </c>
       <c r="O12" t="n">
-        <v>138.781807285077</v>
+        <v>532.6441265618066</v>
       </c>
       <c r="P12" t="n">
-        <v>410.3190544657844</v>
+        <v>410.3190544657845</v>
       </c>
       <c r="Q12" t="n">
-        <v>221.0573514940585</v>
+        <v>221.0573514940586</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>67.7535129468109</v>
+        <v>67.75351294681087</v>
       </c>
       <c r="K13" t="n">
         <v>183.9374364516646</v>
@@ -35586,7 +35586,7 @@
         <v>208.2085295676596</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.87592130828489</v>
+        <v>87.87592130828487</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>175.6497713946492</v>
+        <v>175.6497713946493</v>
       </c>
       <c r="K14" t="n">
-        <v>385.2179235495884</v>
+        <v>385.2179235495885</v>
       </c>
       <c r="L14" t="n">
-        <v>530.70157174723</v>
+        <v>530.7015717472301</v>
       </c>
       <c r="M14" t="n">
-        <v>607.282042170905</v>
+        <v>607.2820421709051</v>
       </c>
       <c r="N14" t="n">
-        <v>602.3287050062372</v>
+        <v>602.3287050062373</v>
       </c>
       <c r="O14" t="n">
-        <v>523.1178374893854</v>
+        <v>523.1178374893855</v>
       </c>
       <c r="P14" t="n">
-        <v>408.4140393084474</v>
+        <v>408.4140393084475</v>
       </c>
       <c r="Q14" t="n">
-        <v>228.7001571631554</v>
+        <v>228.7001571631555</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>110.9861240737758</v>
       </c>
       <c r="K15" t="n">
-        <v>317.5928051819473</v>
+        <v>317.5928051819474</v>
       </c>
       <c r="L15" t="n">
-        <v>118.2270173641147</v>
+        <v>143.3265139746474</v>
       </c>
       <c r="M15" t="n">
-        <v>623.2228086989689</v>
+        <v>623.2228086989692</v>
       </c>
       <c r="N15" t="n">
-        <v>655.5833320762265</v>
+        <v>655.5833320762267</v>
       </c>
       <c r="O15" t="n">
-        <v>532.6441265618066</v>
+        <v>138.7818072850772</v>
       </c>
       <c r="P15" t="n">
-        <v>251.6335195354374</v>
+        <v>410.3190544657845</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.98006375820941</v>
+        <v>221.0573514940586</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>67.75351294681035</v>
+        <v>67.75351294681087</v>
       </c>
       <c r="K16" t="n">
         <v>183.9374364516646</v>
@@ -35811,7 +35811,7 @@
         <v>266.0109844503289</v>
       </c>
       <c r="M16" t="n">
-        <v>286.0177834045622</v>
+        <v>286.0177834045625</v>
       </c>
       <c r="N16" t="n">
         <v>286.8705688403861</v>
@@ -35823,7 +35823,7 @@
         <v>208.2085295676596</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.87592130828489</v>
+        <v>87.87592130828487</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>175.6497713946492</v>
       </c>
       <c r="K17" t="n">
-        <v>385.2179235495883</v>
+        <v>385.2179235495884</v>
       </c>
       <c r="L17" t="n">
-        <v>530.7015717472299</v>
+        <v>530.70157174723</v>
       </c>
       <c r="M17" t="n">
-        <v>607.2820421709049</v>
+        <v>607.2820421709051</v>
       </c>
       <c r="N17" t="n">
-        <v>602.3287050062371</v>
+        <v>602.3287050062372</v>
       </c>
       <c r="O17" t="n">
-        <v>523.1178374893852</v>
+        <v>523.1178374893854</v>
       </c>
       <c r="P17" t="n">
-        <v>408.4140393084473</v>
+        <v>408.4140393084475</v>
       </c>
       <c r="Q17" t="n">
         <v>228.7001571631554</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>110.9861240737758</v>
       </c>
       <c r="K18" t="n">
-        <v>59.81610658952723</v>
+        <v>317.5928051819473</v>
       </c>
       <c r="L18" t="n">
-        <v>118.2270173641146</v>
+        <v>489.0673626675739</v>
       </c>
       <c r="M18" t="n">
-        <v>623.2228086989689</v>
+        <v>362.962015072867</v>
       </c>
       <c r="N18" t="n">
-        <v>655.5833320762265</v>
+        <v>176.2409577326731</v>
       </c>
       <c r="O18" t="n">
-        <v>532.6441265618065</v>
+        <v>532.6441265618066</v>
       </c>
       <c r="P18" t="n">
-        <v>410.3190544657843</v>
+        <v>410.3190544657845</v>
       </c>
       <c r="Q18" t="n">
         <v>221.0573514940585</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>70.76249425071109</v>
+        <v>70.7624942507111</v>
       </c>
       <c r="K19" t="n">
         <v>186.9464177555648</v>
@@ -36051,16 +36051,16 @@
         <v>289.0267647084625</v>
       </c>
       <c r="N19" t="n">
-        <v>289.8795501442862</v>
+        <v>289.8795501442863</v>
       </c>
       <c r="O19" t="n">
-        <v>258.750236590536</v>
+        <v>258.7502365905361</v>
       </c>
       <c r="P19" t="n">
-        <v>138.0244474392318</v>
+        <v>211.2175108715599</v>
       </c>
       <c r="Q19" t="n">
-        <v>90.88490261218507</v>
+        <v>17.69183917985693</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>530.7015717472299</v>
       </c>
       <c r="M20" t="n">
-        <v>607.2820421709058</v>
+        <v>607.2820421709049</v>
       </c>
       <c r="N20" t="n">
         <v>602.3287050062371</v>
@@ -36203,7 +36203,7 @@
         <v>53.1275681693686</v>
       </c>
       <c r="L21" t="n">
-        <v>443.3783244242104</v>
+        <v>489.0673626675738</v>
       </c>
       <c r="M21" t="n">
         <v>623.2228086989689</v>
@@ -36215,10 +36215,10 @@
         <v>532.6441265618065</v>
       </c>
       <c r="P21" t="n">
-        <v>91.85628582584721</v>
+        <v>256.2445353183326</v>
       </c>
       <c r="Q21" t="n">
-        <v>221.0573514940585</v>
+        <v>10.98006375820935</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>70.76249425071109</v>
       </c>
       <c r="K22" t="n">
-        <v>184.5158485739478</v>
+        <v>186.9464177555648</v>
       </c>
       <c r="L22" t="n">
         <v>269.0199657542291</v>
@@ -36297,7 +36297,7 @@
         <v>211.2175108715598</v>
       </c>
       <c r="Q22" t="n">
-        <v>90.88490261218507</v>
+        <v>17.69183917985716</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>53.12756816936866</v>
+        <v>317.5928051819473</v>
       </c>
       <c r="L24" t="n">
         <v>489.0673626675738</v>
       </c>
       <c r="M24" t="n">
-        <v>623.2228086989689</v>
+        <v>157.5177449489691</v>
       </c>
       <c r="N24" t="n">
-        <v>655.5833320762265</v>
+        <v>492.6713519303468</v>
       </c>
       <c r="O24" t="n">
         <v>532.6441265618066</v>
       </c>
       <c r="P24" t="n">
-        <v>256.2445353183326</v>
+        <v>410.3190544657844</v>
       </c>
       <c r="Q24" t="n">
-        <v>10.98006375820941</v>
+        <v>221.0573514940585</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>70.7624942507111</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>186.9464177555648</v>
+        <v>186.9464177555647</v>
       </c>
       <c r="L25" t="n">
         <v>269.0199657542291</v>
       </c>
       <c r="M25" t="n">
-        <v>289.0267647084625</v>
+        <v>289.0267647084624</v>
       </c>
       <c r="N25" t="n">
         <v>289.8795501442863</v>
       </c>
       <c r="O25" t="n">
-        <v>258.7502365905361</v>
+        <v>258.750236590536</v>
       </c>
       <c r="P25" t="n">
-        <v>138.0244474392316</v>
+        <v>211.2175108715598</v>
       </c>
       <c r="Q25" t="n">
-        <v>90.88490261218509</v>
+        <v>88.45433343056889</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>110.9861240737758</v>
       </c>
       <c r="K27" t="n">
-        <v>317.5928051819473</v>
+        <v>57.33201155584543</v>
       </c>
       <c r="L27" t="n">
         <v>489.0673626675738</v>
       </c>
       <c r="M27" t="n">
-        <v>157.5177449489691</v>
+        <v>623.2228086989689</v>
       </c>
       <c r="N27" t="n">
-        <v>381.685227856571</v>
+        <v>176.240957732673</v>
       </c>
       <c r="O27" t="n">
         <v>532.6441265618066</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>67.75351294681084</v>
+        <v>67.75351294681087</v>
       </c>
       <c r="K28" t="n">
-        <v>183.9374364516645</v>
+        <v>183.9374364516646</v>
       </c>
       <c r="L28" t="n">
         <v>266.0109844503289</v>
@@ -36762,7 +36762,7 @@
         <v>286.0177834045622</v>
       </c>
       <c r="N28" t="n">
-        <v>286.870568840386</v>
+        <v>286.8705688403861</v>
       </c>
       <c r="O28" t="n">
         <v>255.7412552866358</v>
@@ -36771,7 +36771,7 @@
         <v>208.2085295676596</v>
       </c>
       <c r="Q28" t="n">
-        <v>87.87592130828483</v>
+        <v>87.87592130828486</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>607.282042170905</v>
       </c>
       <c r="N29" t="n">
-        <v>602.3287050062379</v>
+        <v>602.3287050062372</v>
       </c>
       <c r="O29" t="n">
         <v>523.1178374893854</v>
@@ -36917,16 +36917,16 @@
         <v>489.0673626675738</v>
       </c>
       <c r="M30" t="n">
-        <v>362.9620150728671</v>
+        <v>623.2228086989689</v>
       </c>
       <c r="N30" t="n">
-        <v>176.240957732673</v>
+        <v>234.4429327465083</v>
       </c>
       <c r="O30" t="n">
         <v>532.6441265618066</v>
       </c>
       <c r="P30" t="n">
-        <v>410.3190544657844</v>
+        <v>91.85628582584724</v>
       </c>
       <c r="Q30" t="n">
         <v>221.0573514940585</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.75351294681084</v>
+        <v>67.75351294681089</v>
       </c>
       <c r="K31" t="n">
-        <v>183.9374364516645</v>
+        <v>183.9374364516646</v>
       </c>
       <c r="L31" t="n">
         <v>266.0109844503289</v>
@@ -36999,16 +36999,16 @@
         <v>286.0177834045622</v>
       </c>
       <c r="N31" t="n">
-        <v>286.870568840386</v>
+        <v>286.8705688403861</v>
       </c>
       <c r="O31" t="n">
-        <v>255.7412552866358</v>
+        <v>255.7412552866359</v>
       </c>
       <c r="P31" t="n">
         <v>208.2085295676596</v>
       </c>
       <c r="Q31" t="n">
-        <v>87.87592130828483</v>
+        <v>87.87592130828487</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>70.76249425071114</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>186.9464177555648</v>
+        <v>186.9464177555647</v>
       </c>
       <c r="L34" t="n">
         <v>269.0199657542291</v>
       </c>
       <c r="M34" t="n">
-        <v>289.0267647084625</v>
+        <v>289.0267647084624</v>
       </c>
       <c r="N34" t="n">
         <v>289.8795501442863</v>
       </c>
       <c r="O34" t="n">
-        <v>258.7502365905361</v>
+        <v>258.750236590536</v>
       </c>
       <c r="P34" t="n">
-        <v>211.2175108715599</v>
+        <v>211.2175108715598</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.69183917985647</v>
+        <v>88.45433343056889</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>110.9861240737758</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>53.12756816936866</v>
+        <v>269.8933943253761</v>
       </c>
       <c r="L36" t="n">
-        <v>489.0673626675738</v>
+        <v>118.2270173641147</v>
       </c>
       <c r="M36" t="n">
         <v>623.2228086989689</v>
       </c>
       <c r="N36" t="n">
-        <v>180.44540111915</v>
+        <v>655.5833320762265</v>
       </c>
       <c r="O36" t="n">
         <v>532.6441265618066</v>
@@ -37403,7 +37403,7 @@
         <v>410.3190544657844</v>
       </c>
       <c r="Q36" t="n">
-        <v>221.0573514940585</v>
+        <v>10.98006375820941</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>70.76249425071107</v>
       </c>
       <c r="K37" t="n">
-        <v>186.9464177555648</v>
+        <v>186.9464177555647</v>
       </c>
       <c r="L37" t="n">
         <v>269.0199657542291</v>
       </c>
       <c r="M37" t="n">
-        <v>289.0267647084625</v>
+        <v>215.8337012761352</v>
       </c>
       <c r="N37" t="n">
         <v>289.8795501442863</v>
       </c>
       <c r="O37" t="n">
-        <v>256.3196674089184</v>
+        <v>258.750236590536</v>
       </c>
       <c r="P37" t="n">
-        <v>211.2175108715599</v>
+        <v>211.2175108715598</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.88490261218513</v>
+        <v>90.88490261218506</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>385.2179235495884</v>
       </c>
       <c r="L38" t="n">
-        <v>530.7015717472295</v>
+        <v>530.70157174723</v>
       </c>
       <c r="M38" t="n">
         <v>607.282042170905</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>110.9861240737758</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>57.33201155584543</v>
+        <v>317.5928051819473</v>
       </c>
       <c r="L39" t="n">
-        <v>489.0673626675738</v>
+        <v>118.2270173641147</v>
       </c>
       <c r="M39" t="n">
         <v>623.2228086989689</v>
       </c>
       <c r="N39" t="n">
-        <v>176.240957732673</v>
+        <v>655.5833320762265</v>
       </c>
       <c r="O39" t="n">
-        <v>532.6441265618066</v>
+        <v>274.8674279693864</v>
       </c>
       <c r="P39" t="n">
         <v>410.3190544657844</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>70.76249425071114</v>
+        <v>70.76249425071106</v>
       </c>
       <c r="K40" t="n">
-        <v>186.9464177555648</v>
+        <v>186.9464177555647</v>
       </c>
       <c r="L40" t="n">
         <v>269.0199657542291</v>
       </c>
       <c r="M40" t="n">
-        <v>289.0267647084625</v>
+        <v>289.0267647084624</v>
       </c>
       <c r="N40" t="n">
-        <v>289.8795501442863</v>
+        <v>289.8795501442862</v>
       </c>
       <c r="O40" t="n">
-        <v>258.7502365905361</v>
+        <v>258.750236590536</v>
       </c>
       <c r="P40" t="n">
-        <v>211.2175108715599</v>
+        <v>211.2175108715598</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.69183917985647</v>
+        <v>17.69183917985808</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>110.9861240737758</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>53.12756816936866</v>
+        <v>269.8933943253761</v>
       </c>
       <c r="L42" t="n">
-        <v>489.0673626675738</v>
+        <v>118.2270173641147</v>
       </c>
       <c r="M42" t="n">
         <v>623.2228086989689</v>
       </c>
       <c r="N42" t="n">
-        <v>180.44540111915</v>
+        <v>655.5833320762265</v>
       </c>
       <c r="O42" t="n">
         <v>532.6441265618066</v>
@@ -37877,7 +37877,7 @@
         <v>410.3190544657844</v>
       </c>
       <c r="Q42" t="n">
-        <v>221.0573514940585</v>
+        <v>10.98006375820941</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>67.75351294681089</v>
+        <v>67.75351294681087</v>
       </c>
       <c r="K43" t="n">
         <v>183.9374364516646</v>
@@ -37950,13 +37950,13 @@
         <v>286.8705688403861</v>
       </c>
       <c r="O43" t="n">
-        <v>255.7412552866359</v>
+        <v>255.7412552866358</v>
       </c>
       <c r="P43" t="n">
         <v>208.2085295676596</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.87592130828487</v>
+        <v>87.87592130828486</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>530.70157174723</v>
       </c>
       <c r="M44" t="n">
-        <v>607.2820421709051</v>
+        <v>607.282042170905</v>
       </c>
       <c r="N44" t="n">
         <v>602.3287050062372</v>
@@ -38032,7 +38032,7 @@
         <v>523.1178374893854</v>
       </c>
       <c r="P44" t="n">
-        <v>408.4140393084475</v>
+        <v>408.4140393084474</v>
       </c>
       <c r="Q44" t="n">
         <v>228.7001571631554</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>110.9861240737758</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>317.5928051819473</v>
       </c>
       <c r="L45" t="n">
-        <v>489.0673626675739</v>
+        <v>118.2270173641147</v>
       </c>
       <c r="M45" t="n">
-        <v>362.962015072867</v>
+        <v>623.2228086989689</v>
       </c>
       <c r="N45" t="n">
-        <v>176.2409577326731</v>
+        <v>655.5833320762265</v>
       </c>
       <c r="O45" t="n">
         <v>532.6441265618066</v>
       </c>
       <c r="P45" t="n">
-        <v>410.3190544657845</v>
+        <v>152.5423558733642</v>
       </c>
       <c r="Q45" t="n">
         <v>221.0573514940585</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>67.7535129468109</v>
+        <v>67.75351294681087</v>
       </c>
       <c r="K46" t="n">
         <v>183.9374364516646</v>
@@ -38187,13 +38187,13 @@
         <v>286.8705688403861</v>
       </c>
       <c r="O46" t="n">
-        <v>255.7412552866359</v>
+        <v>255.7412552866358</v>
       </c>
       <c r="P46" t="n">
         <v>208.2085295676596</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.8759213082849</v>
+        <v>87.87592130828486</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
